--- a/public/docs/Grammar_fixit_exercise.xlsx
+++ b/public/docs/Grammar_fixit_exercise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\01_WebDevelop\01_FullStack\04_TeachLearnFront\public\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F98356-302C-43DB-A41F-C327E30F5A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCD42EE-0BAB-45A1-9CD4-605EEDF7A5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{957858FE-AC4D-42E8-AFE4-77BBB2FEBAB6}"/>
+    <workbookView xWindow="444" yWindow="228" windowWidth="13356" windowHeight="11556" xr2:uid="{957858FE-AC4D-42E8-AFE4-77BBB2FEBAB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="83">
   <si>
     <t>{beginning: "</t>
   </si>
@@ -186,6 +186,105 @@
   </si>
   <si>
     <t>", correct: "</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>this book interesting</t>
+  </si>
+  <si>
+    <t>She</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>eats</t>
+  </si>
+  <si>
+    <t>too much sugar</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>takes</t>
+  </si>
+  <si>
+    <t>a lot of time</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>a new phone</t>
+  </si>
+  <si>
+    <t>This message</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>sounds</t>
+  </si>
+  <si>
+    <t>very important</t>
+  </si>
+  <si>
+    <t>My family</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>lives</t>
+  </si>
+  <si>
+    <t>in the city</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>gives</t>
+  </si>
+  <si>
+    <t>a good example</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>to the music</t>
+  </si>
+  <si>
+    <t>We</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>for new ideas</t>
+  </si>
+  <si>
+    <t>The government</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>provides</t>
+  </si>
+  <si>
+    <t>free education</t>
   </si>
 </sst>
 </file>
@@ -595,20 +694,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB64D9CB-62E1-4E7F-A9F1-9B1326169423}">
   <dimension ref="A2:J360"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.88671875" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20" style="3" customWidth="1"/>
     <col min="9" max="9" width="5.5546875" style="2" customWidth="1"/>
     <col min="10" max="10" width="86" style="2" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="2"/>
@@ -1287,30 +1386,33 @@
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J27" s="2" t="str">
         <f>A27&amp;B27&amp;C27&amp;D27&amp;E27&amp;F27&amp;G27&amp;H27&amp;I27</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <v>{beginning: "I", bold: "find", correct: "find", ending: "this book interesting"},</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1318,32 +1420,32 @@
         <v>0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J28" s="2" t="str">
         <f>A28&amp;B28&amp;C28&amp;D28&amp;E28&amp;F28&amp;G28&amp;H28&amp;I28</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "She", bold: "eat", correct: "eats", ending: "too much sugar"},</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1351,32 +1453,32 @@
         <v>0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J29" s="2" t="str">
         <f t="shared" ref="J29:J36" si="2">A29&amp;B29&amp;C29&amp;D29&amp;E29&amp;F29&amp;G29&amp;H29&amp;I29</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "It", bold: "take", correct: "takes", ending: "a lot of time"},</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1384,32 +1486,32 @@
         <v>0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J30" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "I", bold: "want", correct: "want", ending: "a new phone"},</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1417,32 +1519,32 @@
         <v>0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J31" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "This message", bold: "sound", correct: "sounds", ending: "very important"},</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1450,32 +1552,32 @@
         <v>0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J32" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "My family", bold: "live", correct: "lives", ending: "in the city"},</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1483,32 +1585,32 @@
         <v>0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J33" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "He", bold: "give", correct: "gives", ending: "a good example"},</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1516,32 +1618,32 @@
         <v>0</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J34" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "I", bold: "listen", correct: "listen", ending: "to the music"},</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -1549,32 +1651,32 @@
         <v>0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J35" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "We", bold: "look", correct: "look", ending: "for new ideas"},</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -1582,32 +1684,32 @@
         <v>0</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J36" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "The government", bold: "provide", correct: "provides", ending: "free education"},</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">

--- a/public/docs/Grammar_fixit_exercise.xlsx
+++ b/public/docs/Grammar_fixit_exercise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\01_WebDevelop\01_FullStack\04_TeachLearnFront\public\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCD42EE-0BAB-45A1-9CD4-605EEDF7A5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7B1BF6-9C5C-4874-B257-2F503190C0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="444" yWindow="228" windowWidth="13356" windowHeight="11556" xr2:uid="{957858FE-AC4D-42E8-AFE4-77BBB2FEBAB6}"/>
+    <workbookView xWindow="384" yWindow="1104" windowWidth="13512" windowHeight="8880" xr2:uid="{957858FE-AC4D-42E8-AFE4-77BBB2FEBAB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="111">
   <si>
     <t>{beginning: "</t>
   </si>
@@ -285,6 +285,90 @@
   </si>
   <si>
     <t>free education</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>will make</t>
+  </si>
+  <si>
+    <t>the right decision</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>will support</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>They</t>
+  </si>
+  <si>
+    <t>install</t>
+  </si>
+  <si>
+    <t>will install</t>
+  </si>
+  <si>
+    <t>a new system</t>
+  </si>
+  <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>will talk</t>
+  </si>
+  <si>
+    <t>after the meeting</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>will buy</t>
+  </si>
+  <si>
+    <t>a new computer</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>will do</t>
+  </si>
+  <si>
+    <t>my best to help you</t>
+  </si>
+  <si>
+    <t>Your life</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>will change</t>
+  </si>
+  <si>
+    <t>for the better</t>
+  </si>
+  <si>
+    <t>Since you are here, we</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>will start</t>
+  </si>
+  <si>
+    <t>the new project</t>
   </si>
 </sst>
 </file>
@@ -692,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB64D9CB-62E1-4E7F-A9F1-9B1326169423}">
-  <dimension ref="A2:J360"/>
+  <dimension ref="A2:J358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="H35" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39:J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1721,30 +1805,33 @@
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B39" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="C39" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J39" s="2" t="str">
         <f>A39&amp;B39&amp;C39&amp;D39&amp;E39&amp;F39&amp;G39&amp;H39&amp;I39</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <v>{beginning: "You", bold: "make", correct: "will make", ending: "the right decision"},</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -1752,32 +1839,32 @@
         <v>0</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J40" s="2" t="str">
         <f>A40&amp;B40&amp;C40&amp;D40&amp;E40&amp;F40&amp;G40&amp;H40&amp;I40</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "She", bold: "support", correct: "will support", ending: "you"},</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -1785,32 +1872,32 @@
         <v>0</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J41" s="2" t="str">
-        <f t="shared" ref="J41:J48" si="3">A41&amp;B41&amp;C41&amp;D41&amp;E41&amp;F41&amp;G41&amp;H41&amp;I41</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" ref="J41:J46" si="3">A41&amp;B41&amp;C41&amp;D41&amp;E41&amp;F41&amp;G41&amp;H41&amp;I41</f>
+        <v>{beginning: "They", bold: "install", correct: "will install", ending: "a new system"},</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -1818,32 +1905,32 @@
         <v>0</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "We", bold: "talk", correct: "will talk", ending: "after the meeting"},</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -1851,32 +1938,32 @@
         <v>0</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J43" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "He", bold: "buy", correct: "will buy", ending: "a new computer"},</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -1884,32 +1971,32 @@
         <v>0</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J44" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "I", bold: "do", correct: "will do", ending: "my best to help you"},</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -1917,32 +2004,32 @@
         <v>0</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J45" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "Your life", bold: "change", correct: "will change", ending: "for the better"},</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -1950,133 +2037,133 @@
         <v>0</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J46" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "Since you are here, we", bold: "start", correct: "will start", ending: "the new project"},</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A48" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="2" t="str">
+        <f>A49&amp;B49&amp;C49&amp;D49&amp;E49&amp;F49&amp;G49&amp;H49&amp;I49</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>22</v>
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="2" t="str">
+        <f>A50&amp;B50&amp;C50&amp;D50&amp;E50&amp;F50&amp;G50&amp;H50&amp;I50</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B51" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C51" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J51" s="2" t="str">
-        <f>A51&amp;B51&amp;C51&amp;D51&amp;E51&amp;F51&amp;G51&amp;H51&amp;I51</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J51:J58" si="4">A51&amp;B51&amp;C51&amp;D51&amp;E51&amp;F51&amp;G51&amp;H51&amp;I51</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2090,7 +2177,7 @@
         <v>48</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>49</v>
@@ -2108,8 +2195,8 @@
         <v>5</v>
       </c>
       <c r="J52" s="2" t="str">
-        <f>A52&amp;B52&amp;C52&amp;D52&amp;E52&amp;F52&amp;G52&amp;H52&amp;I52</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="4"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2123,7 +2210,7 @@
         <v>48</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>49</v>
@@ -2141,8 +2228,8 @@
         <v>5</v>
       </c>
       <c r="J53" s="2" t="str">
-        <f t="shared" ref="J53:J60" si="4">A53&amp;B53&amp;C53&amp;D53&amp;E53&amp;F53&amp;G53&amp;H53&amp;I53</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="4"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2156,7 +2243,7 @@
         <v>48</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>49</v>
@@ -2175,7 +2262,7 @@
       </c>
       <c r="J54" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2189,7 +2276,7 @@
         <v>48</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>49</v>
@@ -2208,7 +2295,7 @@
       </c>
       <c r="J55" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2222,7 +2309,7 @@
         <v>48</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>49</v>
@@ -2241,7 +2328,7 @@
       </c>
       <c r="J56" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -2255,7 +2342,7 @@
         <v>48</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>49</v>
@@ -2274,7 +2361,7 @@
       </c>
       <c r="J57" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -2288,7 +2375,7 @@
         <v>48</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>49</v>
@@ -2307,108 +2394,108 @@
       </c>
       <c r="J58" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A60" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J61" s="2" t="str">
+        <f>A61&amp;B61&amp;C61&amp;D61&amp;E61&amp;F61&amp;G61&amp;H61&amp;I61</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>23</v>
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="2" t="str">
+        <f>A62&amp;B62&amp;C62&amp;D62&amp;E62&amp;F62&amp;G62&amp;H62&amp;I62</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B63" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C63" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J63" s="2" t="str">
-        <f>A63&amp;B63&amp;C63&amp;D63&amp;E63&amp;F63&amp;G63&amp;H63&amp;I63</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J63:J70" si="5">A63&amp;B63&amp;C63&amp;D63&amp;E63&amp;F63&amp;G63&amp;H63&amp;I63</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -2422,7 +2509,7 @@
         <v>48</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>49</v>
@@ -2440,8 +2527,8 @@
         <v>5</v>
       </c>
       <c r="J64" s="2" t="str">
-        <f>A64&amp;B64&amp;C64&amp;D64&amp;E64&amp;F64&amp;G64&amp;H64&amp;I64</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="5"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -2455,7 +2542,7 @@
         <v>48</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>49</v>
@@ -2473,8 +2560,8 @@
         <v>5</v>
       </c>
       <c r="J65" s="2" t="str">
-        <f t="shared" ref="J65:J72" si="5">A65&amp;B65&amp;C65&amp;D65&amp;E65&amp;F65&amp;G65&amp;H65&amp;I65</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="5"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -2488,7 +2575,7 @@
         <v>48</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>49</v>
@@ -2507,7 +2594,7 @@
       </c>
       <c r="J66" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -2521,7 +2608,7 @@
         <v>48</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>49</v>
@@ -2540,7 +2627,7 @@
       </c>
       <c r="J67" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -2554,7 +2641,7 @@
         <v>48</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>49</v>
@@ -2573,7 +2660,7 @@
       </c>
       <c r="J68" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -2587,7 +2674,7 @@
         <v>48</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>49</v>
@@ -2606,7 +2693,7 @@
       </c>
       <c r="J69" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -2620,7 +2707,7 @@
         <v>48</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>49</v>
@@ -2639,108 +2726,108 @@
       </c>
       <c r="J70" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J71" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A72" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73" s="2" t="str">
+        <f>A73&amp;B73&amp;C73&amp;D73&amp;E73&amp;F73&amp;G73&amp;H73&amp;I73</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>24</v>
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74" s="2" t="str">
+        <f>A74&amp;B74&amp;C74&amp;D74&amp;E74&amp;F74&amp;G74&amp;H74&amp;I74</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B75" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C75" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J75" s="2" t="str">
-        <f>A75&amp;B75&amp;C75&amp;D75&amp;E75&amp;F75&amp;G75&amp;H75&amp;I75</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J75:J82" si="6">A75&amp;B75&amp;C75&amp;D75&amp;E75&amp;F75&amp;G75&amp;H75&amp;I75</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -2754,7 +2841,7 @@
         <v>48</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>49</v>
@@ -2772,8 +2859,8 @@
         <v>5</v>
       </c>
       <c r="J76" s="2" t="str">
-        <f>A76&amp;B76&amp;C76&amp;D76&amp;E76&amp;F76&amp;G76&amp;H76&amp;I76</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="6"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -2787,7 +2874,7 @@
         <v>48</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>49</v>
@@ -2805,8 +2892,8 @@
         <v>5</v>
       </c>
       <c r="J77" s="2" t="str">
-        <f t="shared" ref="J77:J84" si="6">A77&amp;B77&amp;C77&amp;D77&amp;E77&amp;F77&amp;G77&amp;H77&amp;I77</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="6"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -2820,7 +2907,7 @@
         <v>48</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>49</v>
@@ -2839,7 +2926,7 @@
       </c>
       <c r="J78" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -2853,7 +2940,7 @@
         <v>48</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>49</v>
@@ -2872,7 +2959,7 @@
       </c>
       <c r="J79" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -2886,7 +2973,7 @@
         <v>48</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>49</v>
@@ -2905,7 +2992,7 @@
       </c>
       <c r="J80" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -2919,7 +3006,7 @@
         <v>48</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>49</v>
@@ -2938,7 +3025,7 @@
       </c>
       <c r="J81" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -2952,7 +3039,7 @@
         <v>48</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>49</v>
@@ -2971,108 +3058,108 @@
       </c>
       <c r="J82" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J84" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A84" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J85" s="2" t="str">
+        <f>A85&amp;B85&amp;C85&amp;D85&amp;E85&amp;F85&amp;G85&amp;H85&amp;I85</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>25</v>
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J86" s="2" t="str">
+        <f>A86&amp;B86&amp;C86&amp;D86&amp;E86&amp;F86&amp;G86&amp;H86&amp;I86</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B87" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C87" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J87" s="2" t="str">
-        <f>A87&amp;B87&amp;C87&amp;D87&amp;E87&amp;F87&amp;G87&amp;H87&amp;I87</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J87:J94" si="7">A87&amp;B87&amp;C87&amp;D87&amp;E87&amp;F87&amp;G87&amp;H87&amp;I87</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -3086,7 +3173,7 @@
         <v>48</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>49</v>
@@ -3104,8 +3191,8 @@
         <v>5</v>
       </c>
       <c r="J88" s="2" t="str">
-        <f>A88&amp;B88&amp;C88&amp;D88&amp;E88&amp;F88&amp;G88&amp;H88&amp;I88</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="7"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -3119,7 +3206,7 @@
         <v>48</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>49</v>
@@ -3137,8 +3224,8 @@
         <v>5</v>
       </c>
       <c r="J89" s="2" t="str">
-        <f t="shared" ref="J89:J96" si="7">A89&amp;B89&amp;C89&amp;D89&amp;E89&amp;F89&amp;G89&amp;H89&amp;I89</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="7"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -3152,7 +3239,7 @@
         <v>48</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>49</v>
@@ -3171,7 +3258,7 @@
       </c>
       <c r="J90" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -3185,7 +3272,7 @@
         <v>48</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>49</v>
@@ -3204,7 +3291,7 @@
       </c>
       <c r="J91" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -3218,7 +3305,7 @@
         <v>48</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>49</v>
@@ -3237,7 +3324,7 @@
       </c>
       <c r="J92" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -3251,7 +3338,7 @@
         <v>48</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>49</v>
@@ -3270,7 +3357,7 @@
       </c>
       <c r="J93" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -3284,7 +3371,7 @@
         <v>48</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>49</v>
@@ -3303,108 +3390,108 @@
       </c>
       <c r="J94" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J95" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J96" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A96" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J97" s="2" t="str">
+        <f>A97&amp;B97&amp;C97&amp;D97&amp;E97&amp;F97&amp;G97&amp;H97&amp;I97</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>26</v>
+      <c r="A98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J98" s="2" t="str">
+        <f>A98&amp;B98&amp;C98&amp;D98&amp;E98&amp;F98&amp;G98&amp;H98&amp;I98</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B99" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C99" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J99" s="2" t="str">
-        <f>A99&amp;B99&amp;C99&amp;D99&amp;E99&amp;F99&amp;G99&amp;H99&amp;I99</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J99:J106" si="8">A99&amp;B99&amp;C99&amp;D99&amp;E99&amp;F99&amp;G99&amp;H99&amp;I99</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -3418,7 +3505,7 @@
         <v>48</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>49</v>
@@ -3436,8 +3523,8 @@
         <v>5</v>
       </c>
       <c r="J100" s="2" t="str">
-        <f>A100&amp;B100&amp;C100&amp;D100&amp;E100&amp;F100&amp;G100&amp;H100&amp;I100</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="8"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -3451,7 +3538,7 @@
         <v>48</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>49</v>
@@ -3469,8 +3556,8 @@
         <v>5</v>
       </c>
       <c r="J101" s="2" t="str">
-        <f t="shared" ref="J101:J108" si="8">A101&amp;B101&amp;C101&amp;D101&amp;E101&amp;F101&amp;G101&amp;H101&amp;I101</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="8"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -3484,7 +3571,7 @@
         <v>48</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>49</v>
@@ -3503,7 +3590,7 @@
       </c>
       <c r="J102" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -3517,7 +3604,7 @@
         <v>48</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>49</v>
@@ -3536,7 +3623,7 @@
       </c>
       <c r="J103" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -3550,7 +3637,7 @@
         <v>48</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>49</v>
@@ -3569,7 +3656,7 @@
       </c>
       <c r="J104" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -3583,7 +3670,7 @@
         <v>48</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>49</v>
@@ -3602,7 +3689,7 @@
       </c>
       <c r="J105" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -3616,7 +3703,7 @@
         <v>48</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>49</v>
@@ -3635,108 +3722,108 @@
       </c>
       <c r="J106" s="2" t="str">
         <f t="shared" si="8"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J107" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J108" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A108" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J109" s="2" t="str">
+        <f>A109&amp;B109&amp;C109&amp;D109&amp;E109&amp;F109&amp;G109&amp;H109&amp;I109</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
-        <v>27</v>
+      <c r="A110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J110" s="2" t="str">
+        <f>A110&amp;B110&amp;C110&amp;D110&amp;E110&amp;F110&amp;G110&amp;H110&amp;I110</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B111" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C111" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J111" s="2" t="str">
-        <f>A111&amp;B111&amp;C111&amp;D111&amp;E111&amp;F111&amp;G111&amp;H111&amp;I111</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J111:J118" si="9">A111&amp;B111&amp;C111&amp;D111&amp;E111&amp;F111&amp;G111&amp;H111&amp;I111</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -3750,7 +3837,7 @@
         <v>48</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>49</v>
@@ -3768,8 +3855,8 @@
         <v>5</v>
       </c>
       <c r="J112" s="2" t="str">
-        <f>A112&amp;B112&amp;C112&amp;D112&amp;E112&amp;F112&amp;G112&amp;H112&amp;I112</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="9"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -3783,7 +3870,7 @@
         <v>48</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>49</v>
@@ -3801,8 +3888,8 @@
         <v>5</v>
       </c>
       <c r="J113" s="2" t="str">
-        <f t="shared" ref="J113:J120" si="9">A113&amp;B113&amp;C113&amp;D113&amp;E113&amp;F113&amp;G113&amp;H113&amp;I113</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="9"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -3816,7 +3903,7 @@
         <v>48</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>49</v>
@@ -3835,7 +3922,7 @@
       </c>
       <c r="J114" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -3849,7 +3936,7 @@
         <v>48</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>49</v>
@@ -3868,7 +3955,7 @@
       </c>
       <c r="J115" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -3882,7 +3969,7 @@
         <v>48</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>49</v>
@@ -3901,7 +3988,7 @@
       </c>
       <c r="J116" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -3915,7 +4002,7 @@
         <v>48</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>49</v>
@@ -3934,7 +4021,7 @@
       </c>
       <c r="J117" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -3948,7 +4035,7 @@
         <v>48</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>49</v>
@@ -3967,108 +4054,108 @@
       </c>
       <c r="J118" s="2" t="str">
         <f t="shared" si="9"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J119" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J120" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A120" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J121" s="2" t="str">
+        <f>A121&amp;B121&amp;C121&amp;D121&amp;E121&amp;F121&amp;G121&amp;H121&amp;I121</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
-        <v>28</v>
+      <c r="A122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J122" s="2" t="str">
+        <f>A122&amp;B122&amp;C122&amp;D122&amp;E122&amp;F122&amp;G122&amp;H122&amp;I122</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B123" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C123" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J123" s="2" t="str">
-        <f>A123&amp;B123&amp;C123&amp;D123&amp;E123&amp;F123&amp;G123&amp;H123&amp;I123</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J123:J130" si="10">A123&amp;B123&amp;C123&amp;D123&amp;E123&amp;F123&amp;G123&amp;H123&amp;I123</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -4082,7 +4169,7 @@
         <v>48</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>49</v>
@@ -4100,8 +4187,8 @@
         <v>5</v>
       </c>
       <c r="J124" s="2" t="str">
-        <f>A124&amp;B124&amp;C124&amp;D124&amp;E124&amp;F124&amp;G124&amp;H124&amp;I124</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="10"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -4115,7 +4202,7 @@
         <v>48</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>49</v>
@@ -4133,8 +4220,8 @@
         <v>5</v>
       </c>
       <c r="J125" s="2" t="str">
-        <f t="shared" ref="J125:J132" si="10">A125&amp;B125&amp;C125&amp;D125&amp;E125&amp;F125&amp;G125&amp;H125&amp;I125</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="10"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -4148,7 +4235,7 @@
         <v>48</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>49</v>
@@ -4167,7 +4254,7 @@
       </c>
       <c r="J126" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -4181,7 +4268,7 @@
         <v>48</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>49</v>
@@ -4200,7 +4287,7 @@
       </c>
       <c r="J127" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -4214,7 +4301,7 @@
         <v>48</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>49</v>
@@ -4233,7 +4320,7 @@
       </c>
       <c r="J128" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -4247,7 +4334,7 @@
         <v>48</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>49</v>
@@ -4266,7 +4353,7 @@
       </c>
       <c r="J129" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
@@ -4280,7 +4367,7 @@
         <v>48</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>49</v>
@@ -4299,108 +4386,108 @@
       </c>
       <c r="J130" s="2" t="str">
         <f t="shared" si="10"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J131" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J132" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A132" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J133" s="2" t="str">
+        <f>A133&amp;B133&amp;C133&amp;D133&amp;E133&amp;F133&amp;G133&amp;H133&amp;I133</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
-        <v>29</v>
+      <c r="A134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J134" s="2" t="str">
+        <f>A134&amp;B134&amp;C134&amp;D134&amp;E134&amp;F134&amp;G134&amp;H134&amp;I134</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B135" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C135" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J135" s="2" t="str">
-        <f>A135&amp;B135&amp;C135&amp;D135&amp;E135&amp;F135&amp;G135&amp;H135&amp;I135</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J135:J142" si="11">A135&amp;B135&amp;C135&amp;D135&amp;E135&amp;F135&amp;G135&amp;H135&amp;I135</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
@@ -4414,7 +4501,7 @@
         <v>48</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>49</v>
@@ -4432,8 +4519,8 @@
         <v>5</v>
       </c>
       <c r="J136" s="2" t="str">
-        <f>A136&amp;B136&amp;C136&amp;D136&amp;E136&amp;F136&amp;G136&amp;H136&amp;I136</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="11"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
@@ -4447,7 +4534,7 @@
         <v>48</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>49</v>
@@ -4465,8 +4552,8 @@
         <v>5</v>
       </c>
       <c r="J137" s="2" t="str">
-        <f t="shared" ref="J137:J144" si="11">A137&amp;B137&amp;C137&amp;D137&amp;E137&amp;F137&amp;G137&amp;H137&amp;I137</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="11"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
@@ -4480,7 +4567,7 @@
         <v>48</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>49</v>
@@ -4499,7 +4586,7 @@
       </c>
       <c r="J138" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
@@ -4513,7 +4600,7 @@
         <v>48</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>49</v>
@@ -4532,7 +4619,7 @@
       </c>
       <c r="J139" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
@@ -4546,7 +4633,7 @@
         <v>48</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>49</v>
@@ -4565,7 +4652,7 @@
       </c>
       <c r="J140" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
@@ -4579,7 +4666,7 @@
         <v>48</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>49</v>
@@ -4598,7 +4685,7 @@
       </c>
       <c r="J141" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
@@ -4612,7 +4699,7 @@
         <v>48</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>49</v>
@@ -4631,108 +4718,108 @@
       </c>
       <c r="J142" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I143" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J143" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J144" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A144" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J145" s="2" t="str">
+        <f>A145&amp;B145&amp;C145&amp;D145&amp;E145&amp;F145&amp;G145&amp;H145&amp;I145</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A146" s="4" t="s">
-        <v>30</v>
+      <c r="A146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J146" s="2" t="str">
+        <f>A146&amp;B146&amp;C146&amp;D146&amp;E146&amp;F146&amp;G146&amp;H146&amp;I146</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B147" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C147" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I147" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J147" s="2" t="str">
-        <f>A147&amp;B147&amp;C147&amp;D147&amp;E147&amp;F147&amp;G147&amp;H147&amp;I147</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J147:J154" si="12">A147&amp;B147&amp;C147&amp;D147&amp;E147&amp;F147&amp;G147&amp;H147&amp;I147</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -4746,7 +4833,7 @@
         <v>48</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>49</v>
@@ -4764,8 +4851,8 @@
         <v>5</v>
       </c>
       <c r="J148" s="2" t="str">
-        <f>A148&amp;B148&amp;C148&amp;D148&amp;E148&amp;F148&amp;G148&amp;H148&amp;I148</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="12"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -4779,7 +4866,7 @@
         <v>48</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>49</v>
@@ -4797,8 +4884,8 @@
         <v>5</v>
       </c>
       <c r="J149" s="2" t="str">
-        <f t="shared" ref="J149:J156" si="12">A149&amp;B149&amp;C149&amp;D149&amp;E149&amp;F149&amp;G149&amp;H149&amp;I149</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="12"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -4812,7 +4899,7 @@
         <v>48</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>49</v>
@@ -4831,7 +4918,7 @@
       </c>
       <c r="J150" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -4845,7 +4932,7 @@
         <v>48</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>49</v>
@@ -4864,7 +4951,7 @@
       </c>
       <c r="J151" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -4878,7 +4965,7 @@
         <v>48</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>49</v>
@@ -4897,7 +4984,7 @@
       </c>
       <c r="J152" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -4911,7 +4998,7 @@
         <v>48</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>49</v>
@@ -4930,7 +5017,7 @@
       </c>
       <c r="J153" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -4944,7 +5031,7 @@
         <v>48</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>49</v>
@@ -4963,108 +5050,108 @@
       </c>
       <c r="J154" s="2" t="str">
         <f t="shared" si="12"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H155" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I155" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J155" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H156" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I156" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J156" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A156" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J157" s="2" t="str">
+        <f>A157&amp;B157&amp;C157&amp;D157&amp;E157&amp;F157&amp;G157&amp;H157&amp;I157</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A158" s="4" t="s">
-        <v>31</v>
+      <c r="A158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J158" s="2" t="str">
+        <f>A158&amp;B158&amp;C158&amp;D158&amp;E158&amp;F158&amp;G158&amp;H158&amp;I158</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B159" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C159" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I159" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J159" s="2" t="str">
-        <f>A159&amp;B159&amp;C159&amp;D159&amp;E159&amp;F159&amp;G159&amp;H159&amp;I159</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J159:J166" si="13">A159&amp;B159&amp;C159&amp;D159&amp;E159&amp;F159&amp;G159&amp;H159&amp;I159</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -5078,7 +5165,7 @@
         <v>48</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>49</v>
@@ -5096,8 +5183,8 @@
         <v>5</v>
       </c>
       <c r="J160" s="2" t="str">
-        <f>A160&amp;B160&amp;C160&amp;D160&amp;E160&amp;F160&amp;G160&amp;H160&amp;I160</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="13"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -5111,7 +5198,7 @@
         <v>48</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>49</v>
@@ -5129,8 +5216,8 @@
         <v>5</v>
       </c>
       <c r="J161" s="2" t="str">
-        <f t="shared" ref="J161:J168" si="13">A161&amp;B161&amp;C161&amp;D161&amp;E161&amp;F161&amp;G161&amp;H161&amp;I161</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="13"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -5144,7 +5231,7 @@
         <v>48</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>49</v>
@@ -5163,7 +5250,7 @@
       </c>
       <c r="J162" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -5177,7 +5264,7 @@
         <v>48</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>49</v>
@@ -5196,7 +5283,7 @@
       </c>
       <c r="J163" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -5210,7 +5297,7 @@
         <v>48</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>49</v>
@@ -5229,7 +5316,7 @@
       </c>
       <c r="J164" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
@@ -5243,7 +5330,7 @@
         <v>48</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>49</v>
@@ -5262,7 +5349,7 @@
       </c>
       <c r="J165" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
@@ -5276,7 +5363,7 @@
         <v>48</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>49</v>
@@ -5295,108 +5382,108 @@
       </c>
       <c r="J166" s="2" t="str">
         <f t="shared" si="13"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H167" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I167" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J167" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H168" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J168" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A168" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J169" s="2" t="str">
+        <f>A169&amp;B169&amp;C169&amp;D169&amp;E169&amp;F169&amp;G169&amp;H169&amp;I169</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A170" s="4" t="s">
-        <v>32</v>
+      <c r="A170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J170" s="2" t="str">
+        <f>A170&amp;B170&amp;C170&amp;D170&amp;E170&amp;F170&amp;G170&amp;H170&amp;I170</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B171" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C171" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I171" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J171" s="2" t="str">
-        <f>A171&amp;B171&amp;C171&amp;D171&amp;E171&amp;F171&amp;G171&amp;H171&amp;I171</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J171:J178" si="14">A171&amp;B171&amp;C171&amp;D171&amp;E171&amp;F171&amp;G171&amp;H171&amp;I171</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -5410,7 +5497,7 @@
         <v>48</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>49</v>
@@ -5428,8 +5515,8 @@
         <v>5</v>
       </c>
       <c r="J172" s="2" t="str">
-        <f>A172&amp;B172&amp;C172&amp;D172&amp;E172&amp;F172&amp;G172&amp;H172&amp;I172</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="14"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
@@ -5443,7 +5530,7 @@
         <v>48</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>49</v>
@@ -5461,8 +5548,8 @@
         <v>5</v>
       </c>
       <c r="J173" s="2" t="str">
-        <f t="shared" ref="J173:J180" si="14">A173&amp;B173&amp;C173&amp;D173&amp;E173&amp;F173&amp;G173&amp;H173&amp;I173</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="14"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.3">
@@ -5476,7 +5563,7 @@
         <v>48</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>49</v>
@@ -5495,7 +5582,7 @@
       </c>
       <c r="J174" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
@@ -5509,7 +5596,7 @@
         <v>48</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>49</v>
@@ -5528,7 +5615,7 @@
       </c>
       <c r="J175" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
@@ -5542,7 +5629,7 @@
         <v>48</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>49</v>
@@ -5561,7 +5648,7 @@
       </c>
       <c r="J176" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -5575,7 +5662,7 @@
         <v>48</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>49</v>
@@ -5594,7 +5681,7 @@
       </c>
       <c r="J177" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -5608,7 +5695,7 @@
         <v>48</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>49</v>
@@ -5627,108 +5714,108 @@
       </c>
       <c r="J178" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H179" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I179" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J179" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H180" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I180" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J180" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A180" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J181" s="2" t="str">
+        <f>A181&amp;B181&amp;C181&amp;D181&amp;E181&amp;F181&amp;G181&amp;H181&amp;I181</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A182" s="4" t="s">
-        <v>33</v>
+      <c r="A182" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J182" s="2" t="str">
+        <f>A182&amp;B182&amp;C182&amp;D182&amp;E182&amp;F182&amp;G182&amp;H182&amp;I182</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B183" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C183" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I183" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J183" s="2" t="str">
-        <f>A183&amp;B183&amp;C183&amp;D183&amp;E183&amp;F183&amp;G183&amp;H183&amp;I183</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J183:J190" si="15">A183&amp;B183&amp;C183&amp;D183&amp;E183&amp;F183&amp;G183&amp;H183&amp;I183</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -5742,7 +5829,7 @@
         <v>48</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>49</v>
@@ -5760,8 +5847,8 @@
         <v>5</v>
       </c>
       <c r="J184" s="2" t="str">
-        <f>A184&amp;B184&amp;C184&amp;D184&amp;E184&amp;F184&amp;G184&amp;H184&amp;I184</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="15"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -5775,7 +5862,7 @@
         <v>48</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>49</v>
@@ -5793,8 +5880,8 @@
         <v>5</v>
       </c>
       <c r="J185" s="2" t="str">
-        <f t="shared" ref="J185:J192" si="15">A185&amp;B185&amp;C185&amp;D185&amp;E185&amp;F185&amp;G185&amp;H185&amp;I185</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="15"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -5808,7 +5895,7 @@
         <v>48</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>49</v>
@@ -5827,7 +5914,7 @@
       </c>
       <c r="J186" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -5841,7 +5928,7 @@
         <v>48</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>49</v>
@@ -5860,7 +5947,7 @@
       </c>
       <c r="J187" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -5874,7 +5961,7 @@
         <v>48</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>49</v>
@@ -5893,7 +5980,7 @@
       </c>
       <c r="J188" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -5907,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>49</v>
@@ -5926,7 +6013,7 @@
       </c>
       <c r="J189" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -5940,7 +6027,7 @@
         <v>48</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>49</v>
@@ -5959,108 +6046,108 @@
       </c>
       <c r="J190" s="2" t="str">
         <f t="shared" si="15"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F191" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H191" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I191" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J191" s="2" t="str">
-        <f t="shared" si="15"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H192" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I192" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J192" s="2" t="str">
-        <f t="shared" si="15"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A192" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J193" s="2" t="str">
+        <f>A193&amp;B193&amp;C193&amp;D193&amp;E193&amp;F193&amp;G193&amp;H193&amp;I193</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A194" s="4" t="s">
-        <v>34</v>
+      <c r="A194" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J194" s="2" t="str">
+        <f>A194&amp;B194&amp;C194&amp;D194&amp;E194&amp;F194&amp;G194&amp;H194&amp;I194</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B195" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C195" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G195" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I195" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J195" s="2" t="str">
-        <f>A195&amp;B195&amp;C195&amp;D195&amp;E195&amp;F195&amp;G195&amp;H195&amp;I195</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J195:J202" si="16">A195&amp;B195&amp;C195&amp;D195&amp;E195&amp;F195&amp;G195&amp;H195&amp;I195</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -6074,7 +6161,7 @@
         <v>48</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>49</v>
@@ -6092,8 +6179,8 @@
         <v>5</v>
       </c>
       <c r="J196" s="2" t="str">
-        <f>A196&amp;B196&amp;C196&amp;D196&amp;E196&amp;F196&amp;G196&amp;H196&amp;I196</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="16"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -6107,7 +6194,7 @@
         <v>48</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>49</v>
@@ -6125,8 +6212,8 @@
         <v>5</v>
       </c>
       <c r="J197" s="2" t="str">
-        <f t="shared" ref="J197:J204" si="16">A197&amp;B197&amp;C197&amp;D197&amp;E197&amp;F197&amp;G197&amp;H197&amp;I197</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="16"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -6140,7 +6227,7 @@
         <v>48</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>49</v>
@@ -6159,7 +6246,7 @@
       </c>
       <c r="J198" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -6173,7 +6260,7 @@
         <v>48</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>49</v>
@@ -6192,7 +6279,7 @@
       </c>
       <c r="J199" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -6206,7 +6293,7 @@
         <v>48</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>49</v>
@@ -6225,7 +6312,7 @@
       </c>
       <c r="J200" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -6239,7 +6326,7 @@
         <v>48</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>49</v>
@@ -6258,7 +6345,7 @@
       </c>
       <c r="J201" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -6272,7 +6359,7 @@
         <v>48</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>49</v>
@@ -6291,108 +6378,108 @@
       </c>
       <c r="J202" s="2" t="str">
         <f t="shared" si="16"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G203" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H203" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I203" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J203" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G204" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H204" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I204" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J204" s="2" t="str">
-        <f t="shared" si="16"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A204" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J205" s="2" t="str">
+        <f>A205&amp;B205&amp;C205&amp;D205&amp;E205&amp;F205&amp;G205&amp;H205&amp;I205</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A206" s="4" t="s">
-        <v>35</v>
+      <c r="A206" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J206" s="2" t="str">
+        <f>A206&amp;B206&amp;C206&amp;D206&amp;E206&amp;F206&amp;G206&amp;H206&amp;I206</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B207" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C207" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I207" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J207" s="2" t="str">
-        <f>A207&amp;B207&amp;C207&amp;D207&amp;E207&amp;F207&amp;G207&amp;H207&amp;I207</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J207:J214" si="17">A207&amp;B207&amp;C207&amp;D207&amp;E207&amp;F207&amp;G207&amp;H207&amp;I207</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -6406,7 +6493,7 @@
         <v>48</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>49</v>
@@ -6424,8 +6511,8 @@
         <v>5</v>
       </c>
       <c r="J208" s="2" t="str">
-        <f>A208&amp;B208&amp;C208&amp;D208&amp;E208&amp;F208&amp;G208&amp;H208&amp;I208</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="17"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -6439,7 +6526,7 @@
         <v>48</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>49</v>
@@ -6457,8 +6544,8 @@
         <v>5</v>
       </c>
       <c r="J209" s="2" t="str">
-        <f t="shared" ref="J209:J216" si="17">A209&amp;B209&amp;C209&amp;D209&amp;E209&amp;F209&amp;G209&amp;H209&amp;I209</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="17"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -6472,7 +6559,7 @@
         <v>48</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>49</v>
@@ -6491,7 +6578,7 @@
       </c>
       <c r="J210" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -6505,7 +6592,7 @@
         <v>48</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>49</v>
@@ -6524,7 +6611,7 @@
       </c>
       <c r="J211" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -6538,7 +6625,7 @@
         <v>48</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>49</v>
@@ -6557,7 +6644,7 @@
       </c>
       <c r="J212" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -6571,7 +6658,7 @@
         <v>48</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>49</v>
@@ -6590,7 +6677,7 @@
       </c>
       <c r="J213" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -6604,7 +6691,7 @@
         <v>48</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>49</v>
@@ -6623,108 +6710,108 @@
       </c>
       <c r="J214" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F215" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H215" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I215" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J215" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G216" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H216" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I216" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J216" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A216" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J217" s="2" t="str">
+        <f>A217&amp;B217&amp;C217&amp;D217&amp;E217&amp;F217&amp;G217&amp;H217&amp;I217</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A218" s="4" t="s">
-        <v>36</v>
+      <c r="A218" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I218" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J218" s="2" t="str">
+        <f>A218&amp;B218&amp;C218&amp;D218&amp;E218&amp;F218&amp;G218&amp;H218&amp;I218</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B219" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C219" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G219" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I219" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J219" s="2" t="str">
-        <f>A219&amp;B219&amp;C219&amp;D219&amp;E219&amp;F219&amp;G219&amp;H219&amp;I219</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J219:J226" si="18">A219&amp;B219&amp;C219&amp;D219&amp;E219&amp;F219&amp;G219&amp;H219&amp;I219</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -6738,7 +6825,7 @@
         <v>48</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>49</v>
@@ -6756,8 +6843,8 @@
         <v>5</v>
       </c>
       <c r="J220" s="2" t="str">
-        <f>A220&amp;B220&amp;C220&amp;D220&amp;E220&amp;F220&amp;G220&amp;H220&amp;I220</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="18"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -6771,7 +6858,7 @@
         <v>48</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>49</v>
@@ -6789,8 +6876,8 @@
         <v>5</v>
       </c>
       <c r="J221" s="2" t="str">
-        <f t="shared" ref="J221:J228" si="18">A221&amp;B221&amp;C221&amp;D221&amp;E221&amp;F221&amp;G221&amp;H221&amp;I221</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="18"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -6804,7 +6891,7 @@
         <v>48</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>49</v>
@@ -6823,7 +6910,7 @@
       </c>
       <c r="J222" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -6837,7 +6924,7 @@
         <v>48</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>49</v>
@@ -6856,7 +6943,7 @@
       </c>
       <c r="J223" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -6870,7 +6957,7 @@
         <v>48</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>49</v>
@@ -6889,7 +6976,7 @@
       </c>
       <c r="J224" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -6903,7 +6990,7 @@
         <v>48</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>49</v>
@@ -6922,7 +7009,7 @@
       </c>
       <c r="J225" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -6936,7 +7023,7 @@
         <v>48</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>49</v>
@@ -6955,108 +7042,108 @@
       </c>
       <c r="J226" s="2" t="str">
         <f t="shared" si="18"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F227" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G227" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H227" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I227" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J227" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F228" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G228" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H228" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I228" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J228" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A228" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I229" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J229" s="2" t="str">
+        <f>A229&amp;B229&amp;C229&amp;D229&amp;E229&amp;F229&amp;G229&amp;H229&amp;I229</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A230" s="4" t="s">
-        <v>37</v>
+      <c r="A230" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I230" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J230" s="2" t="str">
+        <f>A230&amp;B230&amp;C230&amp;D230&amp;E230&amp;F230&amp;G230&amp;H230&amp;I230</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B231" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C231" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G231" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I231" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J231" s="2" t="str">
-        <f>A231&amp;B231&amp;C231&amp;D231&amp;E231&amp;F231&amp;G231&amp;H231&amp;I231</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J231:J238" si="19">A231&amp;B231&amp;C231&amp;D231&amp;E231&amp;F231&amp;G231&amp;H231&amp;I231</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -7070,7 +7157,7 @@
         <v>48</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>49</v>
@@ -7088,8 +7175,8 @@
         <v>5</v>
       </c>
       <c r="J232" s="2" t="str">
-        <f>A232&amp;B232&amp;C232&amp;D232&amp;E232&amp;F232&amp;G232&amp;H232&amp;I232</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="19"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -7103,7 +7190,7 @@
         <v>48</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>49</v>
@@ -7121,8 +7208,8 @@
         <v>5</v>
       </c>
       <c r="J233" s="2" t="str">
-        <f t="shared" ref="J233:J240" si="19">A233&amp;B233&amp;C233&amp;D233&amp;E233&amp;F233&amp;G233&amp;H233&amp;I233</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="19"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -7136,7 +7223,7 @@
         <v>48</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>49</v>
@@ -7155,7 +7242,7 @@
       </c>
       <c r="J234" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -7169,7 +7256,7 @@
         <v>48</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>49</v>
@@ -7188,7 +7275,7 @@
       </c>
       <c r="J235" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -7202,7 +7289,7 @@
         <v>48</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>49</v>
@@ -7221,7 +7308,7 @@
       </c>
       <c r="J236" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -7235,7 +7322,7 @@
         <v>48</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>49</v>
@@ -7254,7 +7341,7 @@
       </c>
       <c r="J237" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -7268,7 +7355,7 @@
         <v>48</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>49</v>
@@ -7287,108 +7374,108 @@
       </c>
       <c r="J238" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D239" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F239" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H239" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I239" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J239" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D240" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F240" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G240" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H240" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I240" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J240" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A240" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I241" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J241" s="2" t="str">
+        <f>A241&amp;B241&amp;C241&amp;D241&amp;E241&amp;F241&amp;G241&amp;H241&amp;I241</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A242" s="4" t="s">
-        <v>38</v>
+      <c r="A242" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I242" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J242" s="2" t="str">
+        <f>A242&amp;B242&amp;C242&amp;D242&amp;E242&amp;F242&amp;G242&amp;H242&amp;I242</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B243" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C243" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I243" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J243" s="2" t="str">
-        <f>A243&amp;B243&amp;C243&amp;D243&amp;E243&amp;F243&amp;G243&amp;H243&amp;I243</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J243:J250" si="20">A243&amp;B243&amp;C243&amp;D243&amp;E243&amp;F243&amp;G243&amp;H243&amp;I243</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -7402,7 +7489,7 @@
         <v>48</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>49</v>
@@ -7420,8 +7507,8 @@
         <v>5</v>
       </c>
       <c r="J244" s="2" t="str">
-        <f>A244&amp;B244&amp;C244&amp;D244&amp;E244&amp;F244&amp;G244&amp;H244&amp;I244</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="20"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -7435,7 +7522,7 @@
         <v>48</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>49</v>
@@ -7453,8 +7540,8 @@
         <v>5</v>
       </c>
       <c r="J245" s="2" t="str">
-        <f t="shared" ref="J245:J252" si="20">A245&amp;B245&amp;C245&amp;D245&amp;E245&amp;F245&amp;G245&amp;H245&amp;I245</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="20"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -7468,7 +7555,7 @@
         <v>48</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>49</v>
@@ -7487,7 +7574,7 @@
       </c>
       <c r="J246" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -7501,7 +7588,7 @@
         <v>48</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>49</v>
@@ -7520,7 +7607,7 @@
       </c>
       <c r="J247" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -7534,7 +7621,7 @@
         <v>48</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>49</v>
@@ -7553,7 +7640,7 @@
       </c>
       <c r="J248" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -7567,7 +7654,7 @@
         <v>48</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>49</v>
@@ -7586,7 +7673,7 @@
       </c>
       <c r="J249" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -7600,7 +7687,7 @@
         <v>48</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>49</v>
@@ -7619,108 +7706,108 @@
       </c>
       <c r="J250" s="2" t="str">
         <f t="shared" si="20"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F251" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G251" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H251" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I251" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J251" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A252" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F252" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G252" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H252" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I252" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J252" s="2" t="str">
-        <f t="shared" si="20"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A252" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I253" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J253" s="2" t="str">
+        <f>A253&amp;B253&amp;C253&amp;D253&amp;E253&amp;F253&amp;G253&amp;H253&amp;I253</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A254" s="4" t="s">
-        <v>39</v>
+      <c r="A254" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I254" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J254" s="2" t="str">
+        <f>A254&amp;B254&amp;C254&amp;D254&amp;E254&amp;F254&amp;G254&amp;H254&amp;I254</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B255" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C255" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G255" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I255" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J255" s="2" t="str">
-        <f>A255&amp;B255&amp;C255&amp;D255&amp;E255&amp;F255&amp;G255&amp;H255&amp;I255</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J255:J262" si="21">A255&amp;B255&amp;C255&amp;D255&amp;E255&amp;F255&amp;G255&amp;H255&amp;I255</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -7734,7 +7821,7 @@
         <v>48</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>49</v>
@@ -7752,8 +7839,8 @@
         <v>5</v>
       </c>
       <c r="J256" s="2" t="str">
-        <f>A256&amp;B256&amp;C256&amp;D256&amp;E256&amp;F256&amp;G256&amp;H256&amp;I256</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="21"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -7767,7 +7854,7 @@
         <v>48</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>49</v>
@@ -7785,8 +7872,8 @@
         <v>5</v>
       </c>
       <c r="J257" s="2" t="str">
-        <f t="shared" ref="J257:J264" si="21">A257&amp;B257&amp;C257&amp;D257&amp;E257&amp;F257&amp;G257&amp;H257&amp;I257</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="21"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -7800,7 +7887,7 @@
         <v>48</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>49</v>
@@ -7819,7 +7906,7 @@
       </c>
       <c r="J258" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
@@ -7833,7 +7920,7 @@
         <v>48</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>49</v>
@@ -7852,7 +7939,7 @@
       </c>
       <c r="J259" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
@@ -7866,7 +7953,7 @@
         <v>48</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>49</v>
@@ -7885,7 +7972,7 @@
       </c>
       <c r="J260" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
@@ -7899,7 +7986,7 @@
         <v>48</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>49</v>
@@ -7918,7 +8005,7 @@
       </c>
       <c r="J261" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
@@ -7932,7 +8019,7 @@
         <v>48</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E262" s="2" t="s">
         <v>49</v>
@@ -7951,108 +8038,108 @@
       </c>
       <c r="J262" s="2" t="str">
         <f t="shared" si="21"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A263" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F263" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G263" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H263" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I263" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J263" s="2" t="str">
-        <f t="shared" si="21"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A264" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F264" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G264" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H264" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I264" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J264" s="2" t="str">
-        <f t="shared" si="21"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A264" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I265" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J265" s="2" t="str">
+        <f>A265&amp;B265&amp;C265&amp;D265&amp;E265&amp;F265&amp;G265&amp;H265&amp;I265</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A266" s="4" t="s">
-        <v>40</v>
+      <c r="A266" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I266" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J266" s="2" t="str">
+        <f>A266&amp;B266&amp;C266&amp;D266&amp;E266&amp;F266&amp;G266&amp;H266&amp;I266</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B267" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C267" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H267" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I267" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J267" s="2" t="str">
-        <f>A267&amp;B267&amp;C267&amp;D267&amp;E267&amp;F267&amp;G267&amp;H267&amp;I267</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J267:J274" si="22">A267&amp;B267&amp;C267&amp;D267&amp;E267&amp;F267&amp;G267&amp;H267&amp;I267</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
@@ -8066,7 +8153,7 @@
         <v>48</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>49</v>
@@ -8084,8 +8171,8 @@
         <v>5</v>
       </c>
       <c r="J268" s="2" t="str">
-        <f>A268&amp;B268&amp;C268&amp;D268&amp;E268&amp;F268&amp;G268&amp;H268&amp;I268</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="22"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
@@ -8099,7 +8186,7 @@
         <v>48</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>49</v>
@@ -8117,8 +8204,8 @@
         <v>5</v>
       </c>
       <c r="J269" s="2" t="str">
-        <f t="shared" ref="J269:J276" si="22">A269&amp;B269&amp;C269&amp;D269&amp;E269&amp;F269&amp;G269&amp;H269&amp;I269</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="22"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
@@ -8132,7 +8219,7 @@
         <v>48</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>49</v>
@@ -8151,7 +8238,7 @@
       </c>
       <c r="J270" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
@@ -8165,7 +8252,7 @@
         <v>48</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>49</v>
@@ -8184,7 +8271,7 @@
       </c>
       <c r="J271" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -8198,7 +8285,7 @@
         <v>48</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>49</v>
@@ -8217,7 +8304,7 @@
       </c>
       <c r="J272" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
@@ -8231,7 +8318,7 @@
         <v>48</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>49</v>
@@ -8250,7 +8337,7 @@
       </c>
       <c r="J273" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -8264,7 +8351,7 @@
         <v>48</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>49</v>
@@ -8283,108 +8370,108 @@
       </c>
       <c r="J274" s="2" t="str">
         <f t="shared" si="22"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A275" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F275" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G275" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H275" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I275" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J275" s="2" t="str">
-        <f t="shared" si="22"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A276" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E276" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F276" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G276" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H276" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I276" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J276" s="2" t="str">
-        <f t="shared" si="22"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A276" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G277" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I277" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J277" s="2" t="str">
+        <f>A277&amp;B277&amp;C277&amp;D277&amp;E277&amp;F277&amp;G277&amp;H277&amp;I277</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A278" s="4" t="s">
-        <v>41</v>
+      <c r="A278" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I278" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J278" s="2" t="str">
+        <f>A278&amp;B278&amp;C278&amp;D278&amp;E278&amp;F278&amp;G278&amp;H278&amp;I278</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B279" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C279" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H279" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I279" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J279" s="2" t="str">
-        <f>A279&amp;B279&amp;C279&amp;D279&amp;E279&amp;F279&amp;G279&amp;H279&amp;I279</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J279:J286" si="23">A279&amp;B279&amp;C279&amp;D279&amp;E279&amp;F279&amp;G279&amp;H279&amp;I279</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
@@ -8398,7 +8485,7 @@
         <v>48</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>49</v>
@@ -8416,8 +8503,8 @@
         <v>5</v>
       </c>
       <c r="J280" s="2" t="str">
-        <f>A280&amp;B280&amp;C280&amp;D280&amp;E280&amp;F280&amp;G280&amp;H280&amp;I280</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="23"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -8431,7 +8518,7 @@
         <v>48</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>49</v>
@@ -8449,8 +8536,8 @@
         <v>5</v>
       </c>
       <c r="J281" s="2" t="str">
-        <f t="shared" ref="J281:J288" si="23">A281&amp;B281&amp;C281&amp;D281&amp;E281&amp;F281&amp;G281&amp;H281&amp;I281</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="23"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
@@ -8464,7 +8551,7 @@
         <v>48</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>49</v>
@@ -8483,7 +8570,7 @@
       </c>
       <c r="J282" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
@@ -8497,7 +8584,7 @@
         <v>48</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E283" s="2" t="s">
         <v>49</v>
@@ -8516,7 +8603,7 @@
       </c>
       <c r="J283" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
@@ -8530,7 +8617,7 @@
         <v>48</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>49</v>
@@ -8549,7 +8636,7 @@
       </c>
       <c r="J284" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
@@ -8563,7 +8650,7 @@
         <v>48</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>49</v>
@@ -8582,7 +8669,7 @@
       </c>
       <c r="J285" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
@@ -8596,7 +8683,7 @@
         <v>48</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>49</v>
@@ -8615,108 +8702,108 @@
       </c>
       <c r="J286" s="2" t="str">
         <f t="shared" si="23"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A287" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F287" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G287" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H287" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I287" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J287" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A288" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B288" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D288" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E288" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F288" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G288" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H288" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I288" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J288" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A288" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I289" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J289" s="2" t="str">
+        <f>A289&amp;B289&amp;C289&amp;D289&amp;E289&amp;F289&amp;G289&amp;H289&amp;I289</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A290" s="4" t="s">
-        <v>42</v>
+      <c r="A290" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G290" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I290" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J290" s="2" t="str">
+        <f>A290&amp;B290&amp;C290&amp;D290&amp;E290&amp;F290&amp;G290&amp;H290&amp;I290</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B291" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C291" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G291" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H291" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I291" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J291" s="2" t="str">
-        <f>A291&amp;B291&amp;C291&amp;D291&amp;E291&amp;F291&amp;G291&amp;H291&amp;I291</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J291:J298" si="24">A291&amp;B291&amp;C291&amp;D291&amp;E291&amp;F291&amp;G291&amp;H291&amp;I291</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -8730,7 +8817,7 @@
         <v>48</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>49</v>
@@ -8748,8 +8835,8 @@
         <v>5</v>
       </c>
       <c r="J292" s="2" t="str">
-        <f>A292&amp;B292&amp;C292&amp;D292&amp;E292&amp;F292&amp;G292&amp;H292&amp;I292</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="24"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
@@ -8763,7 +8850,7 @@
         <v>48</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>49</v>
@@ -8781,8 +8868,8 @@
         <v>5</v>
       </c>
       <c r="J293" s="2" t="str">
-        <f t="shared" ref="J293:J300" si="24">A293&amp;B293&amp;C293&amp;D293&amp;E293&amp;F293&amp;G293&amp;H293&amp;I293</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="24"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
@@ -8796,7 +8883,7 @@
         <v>48</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>49</v>
@@ -8815,7 +8902,7 @@
       </c>
       <c r="J294" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -8829,7 +8916,7 @@
         <v>48</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>49</v>
@@ -8848,7 +8935,7 @@
       </c>
       <c r="J295" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -8862,7 +8949,7 @@
         <v>48</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>49</v>
@@ -8881,7 +8968,7 @@
       </c>
       <c r="J296" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -8895,7 +8982,7 @@
         <v>48</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>49</v>
@@ -8914,7 +9001,7 @@
       </c>
       <c r="J297" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
@@ -8928,7 +9015,7 @@
         <v>48</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>49</v>
@@ -8947,108 +9034,108 @@
       </c>
       <c r="J298" s="2" t="str">
         <f t="shared" si="24"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A299" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B299" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D299" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F299" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G299" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H299" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I299" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J299" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A300" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D300" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E300" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F300" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G300" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H300" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I300" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J300" s="2" t="str">
-        <f t="shared" si="24"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A300" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G301" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I301" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J301" s="2" t="str">
+        <f>A301&amp;B301&amp;C301&amp;D301&amp;E301&amp;F301&amp;G301&amp;H301&amp;I301</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A302" s="4" t="s">
-        <v>43</v>
+      <c r="A302" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G302" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H302" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I302" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J302" s="2" t="str">
+        <f>A302&amp;B302&amp;C302&amp;D302&amp;E302&amp;F302&amp;G302&amp;H302&amp;I302</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B303" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C303" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G303" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I303" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J303" s="2" t="str">
-        <f>A303&amp;B303&amp;C303&amp;D303&amp;E303&amp;F303&amp;G303&amp;H303&amp;I303</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J303:J310" si="25">A303&amp;B303&amp;C303&amp;D303&amp;E303&amp;F303&amp;G303&amp;H303&amp;I303</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
@@ -9062,7 +9149,7 @@
         <v>48</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>49</v>
@@ -9080,8 +9167,8 @@
         <v>5</v>
       </c>
       <c r="J304" s="2" t="str">
-        <f>A304&amp;B304&amp;C304&amp;D304&amp;E304&amp;F304&amp;G304&amp;H304&amp;I304</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="25"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.3">
@@ -9095,7 +9182,7 @@
         <v>48</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>49</v>
@@ -9113,8 +9200,8 @@
         <v>5</v>
       </c>
       <c r="J305" s="2" t="str">
-        <f t="shared" ref="J305:J312" si="25">A305&amp;B305&amp;C305&amp;D305&amp;E305&amp;F305&amp;G305&amp;H305&amp;I305</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="25"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
@@ -9128,7 +9215,7 @@
         <v>48</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>49</v>
@@ -9147,7 +9234,7 @@
       </c>
       <c r="J306" s="2" t="str">
         <f t="shared" si="25"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
@@ -9161,7 +9248,7 @@
         <v>48</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>49</v>
@@ -9180,7 +9267,7 @@
       </c>
       <c r="J307" s="2" t="str">
         <f t="shared" si="25"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.3">
@@ -9194,7 +9281,7 @@
         <v>48</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>49</v>
@@ -9213,7 +9300,7 @@
       </c>
       <c r="J308" s="2" t="str">
         <f t="shared" si="25"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
@@ -9227,7 +9314,7 @@
         <v>48</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>49</v>
@@ -9246,7 +9333,7 @@
       </c>
       <c r="J309" s="2" t="str">
         <f t="shared" si="25"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
@@ -9260,7 +9347,7 @@
         <v>48</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>49</v>
@@ -9279,108 +9366,108 @@
       </c>
       <c r="J310" s="2" t="str">
         <f t="shared" si="25"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A311" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D311" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E311" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F311" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G311" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H311" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I311" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J311" s="2" t="str">
-        <f t="shared" si="25"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A312" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B312" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D312" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E312" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F312" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G312" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H312" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I312" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J312" s="2" t="str">
-        <f t="shared" si="25"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A312" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G313" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I313" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J313" s="2" t="str">
+        <f>A313&amp;B313&amp;C313&amp;D313&amp;E313&amp;F313&amp;G313&amp;H313&amp;I313</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A314" s="4" t="s">
-        <v>44</v>
+      <c r="A314" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G314" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H314" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I314" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J314" s="2" t="str">
+        <f>A314&amp;B314&amp;C314&amp;D314&amp;E314&amp;F314&amp;G314&amp;H314&amp;I314</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B315" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C315" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H315" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I315" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J315" s="2" t="str">
-        <f>A315&amp;B315&amp;C315&amp;D315&amp;E315&amp;F315&amp;G315&amp;H315&amp;I315</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J315:J322" si="26">A315&amp;B315&amp;C315&amp;D315&amp;E315&amp;F315&amp;G315&amp;H315&amp;I315</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.3">
@@ -9394,7 +9481,7 @@
         <v>48</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>49</v>
@@ -9412,8 +9499,8 @@
         <v>5</v>
       </c>
       <c r="J316" s="2" t="str">
-        <f>A316&amp;B316&amp;C316&amp;D316&amp;E316&amp;F316&amp;G316&amp;H316&amp;I316</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="26"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.3">
@@ -9427,7 +9514,7 @@
         <v>48</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>49</v>
@@ -9445,8 +9532,8 @@
         <v>5</v>
       </c>
       <c r="J317" s="2" t="str">
-        <f t="shared" ref="J317:J324" si="26">A317&amp;B317&amp;C317&amp;D317&amp;E317&amp;F317&amp;G317&amp;H317&amp;I317</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="26"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.3">
@@ -9460,7 +9547,7 @@
         <v>48</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>49</v>
@@ -9479,7 +9566,7 @@
       </c>
       <c r="J318" s="2" t="str">
         <f t="shared" si="26"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.3">
@@ -9493,7 +9580,7 @@
         <v>48</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>49</v>
@@ -9512,7 +9599,7 @@
       </c>
       <c r="J319" s="2" t="str">
         <f t="shared" si="26"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">
@@ -9526,7 +9613,7 @@
         <v>48</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>49</v>
@@ -9545,7 +9632,7 @@
       </c>
       <c r="J320" s="2" t="str">
         <f t="shared" si="26"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
@@ -9559,7 +9646,7 @@
         <v>48</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>49</v>
@@ -9578,7 +9665,7 @@
       </c>
       <c r="J321" s="2" t="str">
         <f t="shared" si="26"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.3">
@@ -9592,7 +9679,7 @@
         <v>48</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>49</v>
@@ -9611,108 +9698,108 @@
       </c>
       <c r="J322" s="2" t="str">
         <f t="shared" si="26"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A323" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D323" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E323" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F323" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G323" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H323" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I323" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J323" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A324" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B324" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D324" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E324" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F324" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G324" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H324" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I324" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J324" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A324" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G325" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I325" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J325" s="2" t="str">
+        <f>A325&amp;B325&amp;C325&amp;D325&amp;E325&amp;F325&amp;G325&amp;H325&amp;I325</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A326" s="4" t="s">
-        <v>45</v>
+      <c r="A326" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G326" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I326" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J326" s="2" t="str">
+        <f>A326&amp;B326&amp;C326&amp;D326&amp;E326&amp;F326&amp;G326&amp;H326&amp;I326</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B327" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C327" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H327" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I327" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J327" s="2" t="str">
-        <f>A327&amp;B327&amp;C327&amp;D327&amp;E327&amp;F327&amp;G327&amp;H327&amp;I327</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J327:J334" si="27">A327&amp;B327&amp;C327&amp;D327&amp;E327&amp;F327&amp;G327&amp;H327&amp;I327</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.3">
@@ -9726,7 +9813,7 @@
         <v>48</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>49</v>
@@ -9744,8 +9831,8 @@
         <v>5</v>
       </c>
       <c r="J328" s="2" t="str">
-        <f>A328&amp;B328&amp;C328&amp;D328&amp;E328&amp;F328&amp;G328&amp;H328&amp;I328</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="27"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.3">
@@ -9759,7 +9846,7 @@
         <v>48</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>49</v>
@@ -9777,8 +9864,8 @@
         <v>5</v>
       </c>
       <c r="J329" s="2" t="str">
-        <f t="shared" ref="J329:J336" si="27">A329&amp;B329&amp;C329&amp;D329&amp;E329&amp;F329&amp;G329&amp;H329&amp;I329</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="27"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.3">
@@ -9792,7 +9879,7 @@
         <v>48</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>49</v>
@@ -9811,7 +9898,7 @@
       </c>
       <c r="J330" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.3">
@@ -9825,7 +9912,7 @@
         <v>48</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>49</v>
@@ -9844,7 +9931,7 @@
       </c>
       <c r="J331" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
@@ -9858,7 +9945,7 @@
         <v>48</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>49</v>
@@ -9877,7 +9964,7 @@
       </c>
       <c r="J332" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.3">
@@ -9891,7 +9978,7 @@
         <v>48</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>49</v>
@@ -9910,7 +9997,7 @@
       </c>
       <c r="J333" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.3">
@@ -9924,7 +10011,7 @@
         <v>48</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>49</v>
@@ -9943,108 +10030,108 @@
       </c>
       <c r="J334" s="2" t="str">
         <f t="shared" si="27"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A335" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B335" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D335" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E335" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F335" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G335" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H335" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I335" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J335" s="2" t="str">
-        <f t="shared" si="27"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A336" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B336" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D336" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E336" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F336" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G336" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H336" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I336" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J336" s="2" t="str">
-        <f t="shared" si="27"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A336" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A337" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G337" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I337" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J337" s="2" t="str">
+        <f>A337&amp;B337&amp;C337&amp;D337&amp;E337&amp;F337&amp;G337&amp;H337&amp;I337</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A338" s="4" t="s">
-        <v>46</v>
+      <c r="A338" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G338" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H338" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I338" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J338" s="2" t="str">
+        <f>A338&amp;B338&amp;C338&amp;D338&amp;E338&amp;F338&amp;G338&amp;H338&amp;I338</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B339" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C339" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G339" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H339" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I339" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J339" s="2" t="str">
-        <f>A339&amp;B339&amp;C339&amp;D339&amp;E339&amp;F339&amp;G339&amp;H339&amp;I339</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J339:J346" si="28">A339&amp;B339&amp;C339&amp;D339&amp;E339&amp;F339&amp;G339&amp;H339&amp;I339</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
@@ -10058,7 +10145,7 @@
         <v>48</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>49</v>
@@ -10076,8 +10163,8 @@
         <v>5</v>
       </c>
       <c r="J340" s="2" t="str">
-        <f>A340&amp;B340&amp;C340&amp;D340&amp;E340&amp;F340&amp;G340&amp;H340&amp;I340</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="28"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
@@ -10091,7 +10178,7 @@
         <v>48</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>49</v>
@@ -10109,8 +10196,8 @@
         <v>5</v>
       </c>
       <c r="J341" s="2" t="str">
-        <f t="shared" ref="J341:J348" si="28">A341&amp;B341&amp;C341&amp;D341&amp;E341&amp;F341&amp;G341&amp;H341&amp;I341</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="28"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
@@ -10124,7 +10211,7 @@
         <v>48</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>49</v>
@@ -10143,7 +10230,7 @@
       </c>
       <c r="J342" s="2" t="str">
         <f t="shared" si="28"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
@@ -10157,7 +10244,7 @@
         <v>48</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>49</v>
@@ -10176,7 +10263,7 @@
       </c>
       <c r="J343" s="2" t="str">
         <f t="shared" si="28"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
@@ -10190,7 +10277,7 @@
         <v>48</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>49</v>
@@ -10209,7 +10296,7 @@
       </c>
       <c r="J344" s="2" t="str">
         <f t="shared" si="28"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
@@ -10223,7 +10310,7 @@
         <v>48</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>49</v>
@@ -10242,7 +10329,7 @@
       </c>
       <c r="J345" s="2" t="str">
         <f t="shared" si="28"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
@@ -10256,7 +10343,7 @@
         <v>48</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>49</v>
@@ -10275,108 +10362,108 @@
       </c>
       <c r="J346" s="2" t="str">
         <f t="shared" si="28"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A347" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B347" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C347" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D347" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E347" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F347" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G347" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H347" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I347" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J347" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A348" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B348" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D348" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E348" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F348" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G348" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H348" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I348" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J348" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A348" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A349" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F349" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G349" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I349" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J349" s="2" t="str">
+        <f>A349&amp;B349&amp;C349&amp;D349&amp;E349&amp;F349&amp;G349&amp;H349&amp;I349</f>
+        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A350" s="4" t="s">
-        <v>47</v>
+      <c r="A350" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G350" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H350" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I350" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J350" s="2" t="str">
+        <f>A350&amp;B350&amp;C350&amp;D350&amp;E350&amp;F350&amp;G350&amp;H350&amp;I350</f>
+        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B351" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C351" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G351" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H351" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I351" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J351" s="2" t="str">
-        <f>A351&amp;B351&amp;C351&amp;D351&amp;E351&amp;F351&amp;G351&amp;H351&amp;I351</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J351:J358" si="29">A351&amp;B351&amp;C351&amp;D351&amp;E351&amp;F351&amp;G351&amp;H351&amp;I351</f>
+        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
@@ -10390,7 +10477,7 @@
         <v>48</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>49</v>
@@ -10408,8 +10495,8 @@
         <v>5</v>
       </c>
       <c r="J352" s="2" t="str">
-        <f>A352&amp;B352&amp;C352&amp;D352&amp;E352&amp;F352&amp;G352&amp;H352&amp;I352</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="29"/>
+        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
@@ -10423,7 +10510,7 @@
         <v>48</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>49</v>
@@ -10441,8 +10528,8 @@
         <v>5</v>
       </c>
       <c r="J353" s="2" t="str">
-        <f t="shared" ref="J353:J360" si="29">A353&amp;B353&amp;C353&amp;D353&amp;E353&amp;F353&amp;G353&amp;H353&amp;I353</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="29"/>
+        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
@@ -10456,7 +10543,7 @@
         <v>48</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>49</v>
@@ -10475,7 +10562,7 @@
       </c>
       <c r="J354" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
@@ -10489,7 +10576,7 @@
         <v>48</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>49</v>
@@ -10508,7 +10595,7 @@
       </c>
       <c r="J355" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
@@ -10522,7 +10609,7 @@
         <v>48</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>49</v>
@@ -10541,7 +10628,7 @@
       </c>
       <c r="J356" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
@@ -10555,7 +10642,7 @@
         <v>48</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>49</v>
@@ -10574,7 +10661,7 @@
       </c>
       <c r="J357" s="2" t="str">
         <f t="shared" si="29"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
@@ -10588,7 +10675,7 @@
         <v>48</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>49</v>
@@ -10606,72 +10693,6 @@
         <v>5</v>
       </c>
       <c r="J358" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A359" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B359" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D359" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E359" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F359" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G359" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H359" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I359" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J359" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A360" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B360" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D360" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E360" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F360" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G360" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H360" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I360" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J360" s="2" t="str">
         <f t="shared" si="29"/>
         <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>

--- a/public/docs/Grammar_fixit_exercise.xlsx
+++ b/public/docs/Grammar_fixit_exercise.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\01_WebDevelop\01_FullStack\04_TeachLearnFront\public\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7B1BF6-9C5C-4874-B257-2F503190C0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E52A4EE-FA00-4DF6-94C7-848985C22154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="1104" windowWidth="13512" windowHeight="8880" xr2:uid="{957858FE-AC4D-42E8-AFE4-77BBB2FEBAB6}"/>
+    <workbookView xWindow="1080" yWindow="1800" windowWidth="13512" windowHeight="8880" xr2:uid="{957858FE-AC4D-42E8-AFE4-77BBB2FEBAB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="256">
   <si>
     <t>{beginning: "</t>
   </si>
@@ -369,6 +370,441 @@
   </si>
   <si>
     <t>the new project</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>ended</t>
+  </si>
+  <si>
+    <t>the meeting</t>
+  </si>
+  <si>
+    <t>follow</t>
+  </si>
+  <si>
+    <t>followed</t>
+  </si>
+  <si>
+    <t>the new method</t>
+  </si>
+  <si>
+    <t>He never</t>
+  </si>
+  <si>
+    <t>imagine</t>
+  </si>
+  <si>
+    <t>imagined</t>
+  </si>
+  <si>
+    <t>such a result</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>less water last week</t>
+  </si>
+  <si>
+    <t>The children</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>played</t>
+  </si>
+  <si>
+    <t>in the yard all day</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>able to the finish the project</t>
+  </si>
+  <si>
+    <t>clime</t>
+  </si>
+  <si>
+    <t>climed</t>
+  </si>
+  <si>
+    <t>the hilltop</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>pointed</t>
+  </si>
+  <si>
+    <t>at the map</t>
+  </si>
+  <si>
+    <t>bring</t>
+  </si>
+  <si>
+    <t>brought</t>
+  </si>
+  <si>
+    <t>her book</t>
+  </si>
+  <si>
+    <t>choose</t>
+  </si>
+  <si>
+    <t>chose</t>
+  </si>
+  <si>
+    <t>the red shirt</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>came</t>
+  </si>
+  <si>
+    <t>to the concert late</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>drank</t>
+  </si>
+  <si>
+    <t>a glass of water</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>drove</t>
+  </si>
+  <si>
+    <t>to the city</t>
+  </si>
+  <si>
+    <t>The bird</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>flew</t>
+  </si>
+  <si>
+    <t>over the trees</t>
+  </si>
+  <si>
+    <t>forget</t>
+  </si>
+  <si>
+    <t>forgot</t>
+  </si>
+  <si>
+    <t>to do his homework</t>
+  </si>
+  <si>
+    <t>gave</t>
+  </si>
+  <si>
+    <t>me a nice gift</t>
+  </si>
+  <si>
+    <t>The girl</t>
+  </si>
+  <si>
+    <t>get (past)</t>
+  </si>
+  <si>
+    <t>did not get</t>
+  </si>
+  <si>
+    <t>the job</t>
+  </si>
+  <si>
+    <t>play (future)</t>
+  </si>
+  <si>
+    <t>will not play</t>
+  </si>
+  <si>
+    <t>at the party</t>
+  </si>
+  <si>
+    <t>meet (present)</t>
+  </si>
+  <si>
+    <t>do not meet</t>
+  </si>
+  <si>
+    <t>every day</t>
+  </si>
+  <si>
+    <t>understand (past)</t>
+  </si>
+  <si>
+    <t>did not understand</t>
+  </si>
+  <si>
+    <t>the question</t>
+  </si>
+  <si>
+    <t>stop (future)</t>
+  </si>
+  <si>
+    <t>will not stop</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
+    <t>does not bring</t>
+  </si>
+  <si>
+    <t>the books to school</t>
+  </si>
+  <si>
+    <t>read (past)</t>
+  </si>
+  <si>
+    <t>did not read</t>
+  </si>
+  <si>
+    <t>the message carefully</t>
+  </si>
+  <si>
+    <t>arrive (future)</t>
+  </si>
+  <si>
+    <t>will not arrive</t>
+  </si>
+  <si>
+    <t>for the meeting</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>were staying</t>
+  </si>
+  <si>
+    <t>at home all weekend</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>was feeling</t>
+  </si>
+  <si>
+    <t>bad about his decision</t>
+  </si>
+  <si>
+    <t>was eating</t>
+  </si>
+  <si>
+    <t>the cake when they arrived</t>
+  </si>
+  <si>
+    <t>discuss</t>
+  </si>
+  <si>
+    <t>were discussing</t>
+  </si>
+  <si>
+    <t>the theory in the class</t>
+  </si>
+  <si>
+    <t>prepare</t>
+  </si>
+  <si>
+    <t>was preparing</t>
+  </si>
+  <si>
+    <t>dinner for her friends</t>
+  </si>
+  <si>
+    <t>The students</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>were studying</t>
+  </si>
+  <si>
+    <t>law all evening</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>was cooking</t>
+  </si>
+  <si>
+    <t>food when I called</t>
+  </si>
+  <si>
+    <t>The boys</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>were putting</t>
+  </si>
+  <si>
+    <t>the books on the shelf</t>
+  </si>
+  <si>
+    <t>sing (past)</t>
+  </si>
+  <si>
+    <t>was not singing</t>
+  </si>
+  <si>
+    <t>in the morning</t>
+  </si>
+  <si>
+    <t>The guide</t>
+  </si>
+  <si>
+    <t>explain (present)</t>
+  </si>
+  <si>
+    <t>is not explaining</t>
+  </si>
+  <si>
+    <t>it clearly</t>
+  </si>
+  <si>
+    <t>provide (future)</t>
+  </si>
+  <si>
+    <t>will not be providing</t>
+  </si>
+  <si>
+    <t>enough information</t>
+  </si>
+  <si>
+    <t>change (past)</t>
+  </si>
+  <si>
+    <t>was not changing</t>
+  </si>
+  <si>
+    <t>her opinion</t>
+  </si>
+  <si>
+    <t>show (future)</t>
+  </si>
+  <si>
+    <t>will not be showing</t>
+  </si>
+  <si>
+    <t>interest in this topic</t>
+  </si>
+  <si>
+    <t>study (present)</t>
+  </si>
+  <si>
+    <t>are not studying</t>
+  </si>
+  <si>
+    <t>literature at this lesson</t>
+  </si>
+  <si>
+    <t>visit (past)</t>
+  </si>
+  <si>
+    <t>was not visiting</t>
+  </si>
+  <si>
+    <t>them last month</t>
+  </si>
+  <si>
+    <t>solve (future)</t>
+  </si>
+  <si>
+    <t>will not be solving</t>
+  </si>
+  <si>
+    <t>the problem correctly</t>
+  </si>
+  <si>
+    <t>has not found</t>
+  </si>
+  <si>
+    <t>her card</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>have not faced</t>
+  </si>
+  <si>
+    <t>any difficulties so far</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>have not included</t>
+  </si>
+  <si>
+    <t>Sarah in the list</t>
+  </si>
+  <si>
+    <t>has not made</t>
+  </si>
+  <si>
+    <t>a list of items to buy</t>
+  </si>
+  <si>
+    <t>have not changed</t>
+  </si>
+  <si>
+    <t>my mind about the trip</t>
+  </si>
+  <si>
+    <t>mention</t>
+  </si>
+  <si>
+    <t>has not mentioned</t>
+  </si>
+  <si>
+    <t>any reason</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>have not seen</t>
+  </si>
+  <si>
+    <t>the real problem yet</t>
+  </si>
+  <si>
+    <t>try</t>
+  </si>
+  <si>
+    <t>have not tried</t>
+  </si>
+  <si>
+    <t>various solutions yet</t>
   </si>
 </sst>
 </file>
@@ -776,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB64D9CB-62E1-4E7F-A9F1-9B1326169423}">
-  <dimension ref="A2:J358"/>
+  <dimension ref="A2:J346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H35" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39:J46"/>
+    <sheetView tabSelected="1" topLeftCell="I96" workbookViewId="0">
+      <selection activeCell="J99" sqref="J99:J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2074,30 +2510,33 @@
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B49" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J49" s="2" t="str">
         <f>A49&amp;B49&amp;C49&amp;D49&amp;E49&amp;F49&amp;G49&amp;H49&amp;I49</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <v>{beginning: "They", bold: "end", correct: "ended", ending: "the meeting"},</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2105,32 +2544,32 @@
         <v>0</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J50" s="2" t="str">
         <f>A50&amp;B50&amp;C50&amp;D50&amp;E50&amp;F50&amp;G50&amp;H50&amp;I50</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "She", bold: "follow", correct: "followed", ending: "the new method"},</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2138,32 +2577,32 @@
         <v>0</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J51" s="2" t="str">
-        <f t="shared" ref="J51:J58" si="4">A51&amp;B51&amp;C51&amp;D51&amp;E51&amp;F51&amp;G51&amp;H51&amp;I51</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" ref="J51:J56" si="4">A51&amp;B51&amp;C51&amp;D51&amp;E51&amp;F51&amp;G51&amp;H51&amp;I51</f>
+        <v>{beginning: "He never", bold: "imagine", correct: "imagined", ending: "such a result"},</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2171,32 +2610,32 @@
         <v>0</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J52" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "We", bold: "use", correct: "used", ending: "less water last week"},</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2204,32 +2643,32 @@
         <v>0</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J53" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "The children", bold: "play", correct: "played", ending: "in the yard all day"},</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2237,32 +2676,32 @@
         <v>0</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>4</v>
+        <v>130</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J54" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "She", bold: "be", correct: "was", ending: "able to the finish the project"},</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2270,32 +2709,32 @@
         <v>0</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J55" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "They", bold: "clime", correct: "climed", ending: "the hilltop"},</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2303,133 +2742,136 @@
         <v>0</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>2</v>
+        <v>135</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J56" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "He", bold: "point", correct: "pointed", ending: "at the map"},</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+      <c r="A58" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="2" t="str">
+        <f>A59&amp;B59&amp;C59&amp;D59&amp;E59&amp;F59&amp;G59&amp;H59&amp;I59</f>
+        <v>{beginning: "She", bold: "bring", correct: "brought", ending: "her book"},</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>23</v>
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="2" t="str">
+        <f>A60&amp;B60&amp;C60&amp;D60&amp;E60&amp;F60&amp;G60&amp;H60&amp;I60</f>
+        <v>{beginning: "He", bold: "choose", correct: "chose", ending: "the red shirt"},</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B61" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C61" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J61" s="2" t="str">
-        <f>A61&amp;B61&amp;C61&amp;D61&amp;E61&amp;F61&amp;G61&amp;H61&amp;I61</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" ref="J61:J66" si="5">A61&amp;B61&amp;C61&amp;D61&amp;E61&amp;F61&amp;G61&amp;H61&amp;I61</f>
+        <v>{beginning: "They", bold: "come", correct: "came", ending: "to the concert late"},</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -2437,32 +2879,32 @@
         <v>0</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J62" s="2" t="str">
-        <f>A62&amp;B62&amp;C62&amp;D62&amp;E62&amp;F62&amp;G62&amp;H62&amp;I62</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="5"/>
+        <v>{beginning: "I", bold: "drink", correct: "drank", ending: "a glass of water"},</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -2470,32 +2912,32 @@
         <v>0</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J63" s="2" t="str">
-        <f t="shared" ref="J63:J70" si="5">A63&amp;B63&amp;C63&amp;D63&amp;E63&amp;F63&amp;G63&amp;H63&amp;I63</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="5"/>
+        <v>{beginning: "We", bold: "drive", correct: "drove", ending: "to the city"},</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -2503,32 +2945,32 @@
         <v>0</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J64" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "The bird", bold: "fly", correct: "flew", ending: "over the trees"},</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -2536,32 +2978,32 @@
         <v>0</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>2</v>
+        <v>157</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J65" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "He", bold: "forget", correct: "forgot", ending: "to do his homework"},</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -2569,98 +3011,37 @@
         <v>0</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J66" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J67" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "She", bold: "give", correct: "gave", ending: "me a nice gift"},</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J68" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
+      <c r="A68" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -2668,32 +3049,32 @@
         <v>0</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1</v>
+        <v>161</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J69" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <f>A69&amp;B69&amp;C69&amp;D69&amp;E69&amp;F69&amp;G69&amp;H69&amp;I69</f>
+        <v>{beginning: "The girl", bold: "get (past)", correct: "did not get", ending: "the job"},</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -2701,67 +3082,131 @@
         <v>0</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J70" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+        <f>A70&amp;B70&amp;C70&amp;D70&amp;E70&amp;F70&amp;G70&amp;H70&amp;I70</f>
+        <v>{beginning: "They", bold: "play (future)", correct: "will not play", ending: "at the party"},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J71" s="2" t="str">
+        <f t="shared" ref="J71:J76" si="6">A71&amp;B71&amp;C71&amp;D71&amp;E71&amp;F71&amp;G71&amp;H71&amp;I71</f>
+        <v>{beginning: "He", bold: "meet (present)", correct: "do not meet", ending: "every day"},</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>24</v>
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>{beginning: "I", bold: "understand (past)", correct: "did not understand", ending: "the question"},</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B73" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="C73" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J73" s="2" t="str">
-        <f>A73&amp;B73&amp;C73&amp;D73&amp;E73&amp;F73&amp;G73&amp;H73&amp;I73</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" si="6"/>
+        <v>{beginning: "We", bold: "stop (future)", correct: "will not stop", ending: "there"},</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -2769,32 +3214,32 @@
         <v>0</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J74" s="2" t="str">
-        <f>A74&amp;B74&amp;C74&amp;D74&amp;E74&amp;F74&amp;G74&amp;H74&amp;I74</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="6"/>
+        <v>{beginning: "She", bold: "bring", correct: "does not bring", ending: "the books to school"},</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -2802,32 +3247,32 @@
         <v>0</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J75" s="2" t="str">
-        <f t="shared" ref="J75:J82" si="6">A75&amp;B75&amp;C75&amp;D75&amp;E75&amp;F75&amp;G75&amp;H75&amp;I75</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="6"/>
+        <v>{beginning: "I", bold: "read (past)", correct: "did not read", ending: "the message carefully"},</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -2835,98 +3280,37 @@
         <v>0</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J76" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J77" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <v>{beginning: "He", bold: "arrive (future)", correct: "will not arrive", ending: "for the meeting"},</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J78" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+      <c r="A78" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -2934,32 +3318,32 @@
         <v>0</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>2</v>
+        <v>186</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J79" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <f>A79&amp;B79&amp;C79&amp;D79&amp;E79&amp;F79&amp;G79&amp;H79&amp;I79</f>
+        <v>{beginning: "They", bold: "stay", correct: "were staying", ending: "at home all weekend"},</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -2967,32 +3351,32 @@
         <v>0</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>2</v>
+        <v>189</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J80" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
+        <f>A80&amp;B80&amp;C80&amp;D80&amp;E80&amp;F80&amp;G80&amp;H80&amp;I80</f>
+        <v>{beginning: "He", bold: "feel", correct: "was feeling", ending: "bad about his decision"},</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -3000,32 +3384,32 @@
         <v>0</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>2</v>
+        <v>191</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J81" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" ref="J81:J86" si="7">A81&amp;B81&amp;C81&amp;D81&amp;E81&amp;F81&amp;G81&amp;H81&amp;I81</f>
+        <v>{beginning: "I", bold: "eat", correct: "was eating", ending: "the cake when they arrived"},</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -3033,67 +3417,131 @@
         <v>0</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J82" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="7"/>
+        <v>{beginning: "We", bold: "discuss", correct: "were discussing", ending: "the theory in the class"},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>{beginning: "She", bold: "prepare", correct: "was preparing", ending: "dinner for her friends"},</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
-        <v>25</v>
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J84" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>{beginning: "The students", bold: "study", correct: "were studying", ending: "law all evening"},</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B85" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C85" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J85" s="2" t="str">
-        <f>A85&amp;B85&amp;C85&amp;D85&amp;E85&amp;F85&amp;G85&amp;H85&amp;I85</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+        <f t="shared" si="7"/>
+        <v>{beginning: "She", bold: "cook", correct: "was cooking", ending: "food when I called"},</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -3101,98 +3549,37 @@
         <v>0</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>2</v>
+        <v>208</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J86" s="2" t="str">
-        <f>A86&amp;B86&amp;C86&amp;D86&amp;E86&amp;F86&amp;G86&amp;H86&amp;I86</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J87" s="2" t="str">
-        <f t="shared" ref="J87:J94" si="7">A87&amp;B87&amp;C87&amp;D87&amp;E87&amp;F87&amp;G87&amp;H87&amp;I87</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="7"/>
+        <v>{beginning: "The boys", bold: "put", correct: "were putting", ending: "the books on the shelf"},</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J88" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+      <c r="A88" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -3200,32 +3587,32 @@
         <v>0</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>2</v>
+        <v>211</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J89" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <f>A89&amp;B89&amp;C89&amp;D89&amp;E89&amp;F89&amp;G89&amp;H89&amp;I89</f>
+        <v>{beginning: "The bird", bold: "sing (past)", correct: "was not singing", ending: "in the morning"},</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -3233,32 +3620,32 @@
         <v>0</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>2</v>
+        <v>215</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>4</v>
+        <v>216</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J90" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <f>A90&amp;B90&amp;C90&amp;D90&amp;E90&amp;F90&amp;G90&amp;H90&amp;I90</f>
+        <v>{beginning: "The guide", bold: "explain (present)", correct: "is not explaining", ending: "it clearly"},</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -3266,32 +3653,32 @@
         <v>0</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J91" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" ref="J91:J96" si="8">A91&amp;B91&amp;C91&amp;D91&amp;E91&amp;F91&amp;G91&amp;H91&amp;I91</f>
+        <v>{beginning: "They", bold: "provide (future)", correct: "will not be providing", ending: "enough information"},</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -3299,32 +3686,32 @@
         <v>0</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>2</v>
+        <v>221</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>4</v>
+        <v>222</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J92" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="8"/>
+        <v>{beginning: "She", bold: "change (past)", correct: "was not changing", ending: "her opinion"},</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -3332,32 +3719,32 @@
         <v>0</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>2</v>
+        <v>224</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J93" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="8"/>
+        <v>{beginning: "He", bold: "show (future)", correct: "will not be showing", ending: "interest in this topic"},</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -3365,100 +3752,103 @@
         <v>0</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>4</v>
+        <v>228</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J94" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="8"/>
+        <v>{beginning: "We", bold: "study (present)", correct: "are not studying", ending: "literature at this lesson"},</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J95" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>{beginning: "I", bold: "visit (past)", correct: "was not visiting", ending: "them last month"},</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J97" s="2" t="str">
-        <f>A97&amp;B97&amp;C97&amp;D97&amp;E97&amp;F97&amp;G97&amp;H97&amp;I97</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
+      <c r="A96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J96" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>{beginning: "They", bold: "solve (future)", correct: "will not be solving", ending: "the problem correctly"},</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J98" s="2" t="str">
-        <f>A98&amp;B98&amp;C98&amp;D98&amp;E98&amp;F98&amp;G98&amp;H98&amp;I98</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
+      <c r="A98" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -3466,32 +3856,32 @@
         <v>0</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>2</v>
+        <v>235</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>4</v>
+        <v>236</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J99" s="2" t="str">
-        <f t="shared" ref="J99:J106" si="8">A99&amp;B99&amp;C99&amp;D99&amp;E99&amp;F99&amp;G99&amp;H99&amp;I99</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
+        <f>A99&amp;B99&amp;C99&amp;D99&amp;E99&amp;F99&amp;G99&amp;H99&amp;I99</f>
+        <v>{beginning: "She", bold: "find", correct: "has not found", ending: "her card"},</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -3499,32 +3889,32 @@
         <v>0</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>2</v>
+        <v>238</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>4</v>
+        <v>239</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J100" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
+        <f>A100&amp;B100&amp;C100&amp;D100&amp;E100&amp;F100&amp;G100&amp;H100&amp;I100</f>
+        <v>{beginning: "They", bold: "face", correct: "have not faced", ending: "any difficulties so far"},</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -3532,32 +3922,32 @@
         <v>0</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>4</v>
+        <v>242</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J101" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" ref="J101:J106" si="9">A101&amp;B101&amp;C101&amp;D101&amp;E101&amp;F101&amp;G101&amp;H101&amp;I101</f>
+        <v>{beginning: "We", bold: "include", correct: "have not included", ending: "Sarah in the list"},</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -3565,32 +3955,32 @@
         <v>0</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>2</v>
+        <v>243</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J102" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="9"/>
+        <v>{beginning: "He", bold: "make", correct: "has not made", ending: "a list of items to buy"},</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -3598,32 +3988,32 @@
         <v>0</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>2</v>
+        <v>245</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J103" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="9"/>
+        <v>{beginning: "I", bold: "change", correct: "have not changed", ending: "my mind about the trip"},</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -3631,32 +4021,32 @@
         <v>0</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>4</v>
+        <v>249</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J104" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="9"/>
+        <v>{beginning: "She", bold: "mention", correct: "has not mentioned", ending: "any reason"},</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -3664,32 +4054,32 @@
         <v>0</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>2</v>
+        <v>251</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>4</v>
+        <v>252</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J105" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="9"/>
+        <v>{beginning: "You", bold: "see", correct: "have not seen", ending: "the real problem yet"},</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -3697,37 +4087,37 @@
         <v>0</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>2</v>
+        <v>254</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J106" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
+        <f t="shared" si="9"/>
+        <v>{beginning: "I", bold: "try", correct: "have not tried", ending: "various solutions yet"},</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -3822,7 +4212,7 @@
         <v>5</v>
       </c>
       <c r="J111" s="2" t="str">
-        <f t="shared" ref="J111:J118" si="9">A111&amp;B111&amp;C111&amp;D111&amp;E111&amp;F111&amp;G111&amp;H111&amp;I111</f>
+        <f t="shared" ref="J111:J118" si="10">A111&amp;B111&amp;C111&amp;D111&amp;E111&amp;F111&amp;G111&amp;H111&amp;I111</f>
         <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -3855,7 +4245,7 @@
         <v>5</v>
       </c>
       <c r="J112" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -3888,7 +4278,7 @@
         <v>5</v>
       </c>
       <c r="J113" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -3921,7 +4311,7 @@
         <v>5</v>
       </c>
       <c r="J114" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -3954,7 +4344,7 @@
         <v>5</v>
       </c>
       <c r="J115" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -3987,7 +4377,7 @@
         <v>5</v>
       </c>
       <c r="J116" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -4020,7 +4410,7 @@
         <v>5</v>
       </c>
       <c r="J117" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -4053,13 +4443,13 @@
         <v>5</v>
       </c>
       <c r="J118" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -4154,7 +4544,7 @@
         <v>5</v>
       </c>
       <c r="J123" s="2" t="str">
-        <f t="shared" ref="J123:J130" si="10">A123&amp;B123&amp;C123&amp;D123&amp;E123&amp;F123&amp;G123&amp;H123&amp;I123</f>
+        <f t="shared" ref="J123:J130" si="11">A123&amp;B123&amp;C123&amp;D123&amp;E123&amp;F123&amp;G123&amp;H123&amp;I123</f>
         <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -4187,7 +4577,7 @@
         <v>5</v>
       </c>
       <c r="J124" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -4220,7 +4610,7 @@
         <v>5</v>
       </c>
       <c r="J125" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -4253,7 +4643,7 @@
         <v>5</v>
       </c>
       <c r="J126" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -4286,7 +4676,7 @@
         <v>5</v>
       </c>
       <c r="J127" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -4319,7 +4709,7 @@
         <v>5</v>
       </c>
       <c r="J128" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -4352,7 +4742,7 @@
         <v>5</v>
       </c>
       <c r="J129" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -4385,13 +4775,13 @@
         <v>5</v>
       </c>
       <c r="J130" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
@@ -4486,7 +4876,7 @@
         <v>5</v>
       </c>
       <c r="J135" s="2" t="str">
-        <f t="shared" ref="J135:J142" si="11">A135&amp;B135&amp;C135&amp;D135&amp;E135&amp;F135&amp;G135&amp;H135&amp;I135</f>
+        <f t="shared" ref="J135:J142" si="12">A135&amp;B135&amp;C135&amp;D135&amp;E135&amp;F135&amp;G135&amp;H135&amp;I135</f>
         <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -4519,7 +4909,7 @@
         <v>5</v>
       </c>
       <c r="J136" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -4552,7 +4942,7 @@
         <v>5</v>
       </c>
       <c r="J137" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -4585,7 +4975,7 @@
         <v>5</v>
       </c>
       <c r="J138" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -4618,7 +5008,7 @@
         <v>5</v>
       </c>
       <c r="J139" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -4651,7 +5041,7 @@
         <v>5</v>
       </c>
       <c r="J140" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -4684,7 +5074,7 @@
         <v>5</v>
       </c>
       <c r="J141" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -4717,13 +5107,13 @@
         <v>5</v>
       </c>
       <c r="J142" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -4818,7 +5208,7 @@
         <v>5</v>
       </c>
       <c r="J147" s="2" t="str">
-        <f t="shared" ref="J147:J154" si="12">A147&amp;B147&amp;C147&amp;D147&amp;E147&amp;F147&amp;G147&amp;H147&amp;I147</f>
+        <f t="shared" ref="J147:J154" si="13">A147&amp;B147&amp;C147&amp;D147&amp;E147&amp;F147&amp;G147&amp;H147&amp;I147</f>
         <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -4851,7 +5241,7 @@
         <v>5</v>
       </c>
       <c r="J148" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -4884,7 +5274,7 @@
         <v>5</v>
       </c>
       <c r="J149" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -4917,7 +5307,7 @@
         <v>5</v>
       </c>
       <c r="J150" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -4950,7 +5340,7 @@
         <v>5</v>
       </c>
       <c r="J151" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -4983,7 +5373,7 @@
         <v>5</v>
       </c>
       <c r="J152" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -5016,7 +5406,7 @@
         <v>5</v>
       </c>
       <c r="J153" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -5049,13 +5439,13 @@
         <v>5</v>
       </c>
       <c r="J154" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -5150,7 +5540,7 @@
         <v>5</v>
       </c>
       <c r="J159" s="2" t="str">
-        <f t="shared" ref="J159:J166" si="13">A159&amp;B159&amp;C159&amp;D159&amp;E159&amp;F159&amp;G159&amp;H159&amp;I159</f>
+        <f t="shared" ref="J159:J166" si="14">A159&amp;B159&amp;C159&amp;D159&amp;E159&amp;F159&amp;G159&amp;H159&amp;I159</f>
         <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -5183,7 +5573,7 @@
         <v>5</v>
       </c>
       <c r="J160" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -5216,7 +5606,7 @@
         <v>5</v>
       </c>
       <c r="J161" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -5249,7 +5639,7 @@
         <v>5</v>
       </c>
       <c r="J162" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -5282,7 +5672,7 @@
         <v>5</v>
       </c>
       <c r="J163" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -5315,7 +5705,7 @@
         <v>5</v>
       </c>
       <c r="J164" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -5348,7 +5738,7 @@
         <v>5</v>
       </c>
       <c r="J165" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -5381,13 +5771,13 @@
         <v>5</v>
       </c>
       <c r="J166" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
@@ -5482,7 +5872,7 @@
         <v>5</v>
       </c>
       <c r="J171" s="2" t="str">
-        <f t="shared" ref="J171:J178" si="14">A171&amp;B171&amp;C171&amp;D171&amp;E171&amp;F171&amp;G171&amp;H171&amp;I171</f>
+        <f t="shared" ref="J171:J178" si="15">A171&amp;B171&amp;C171&amp;D171&amp;E171&amp;F171&amp;G171&amp;H171&amp;I171</f>
         <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -5515,7 +5905,7 @@
         <v>5</v>
       </c>
       <c r="J172" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -5548,7 +5938,7 @@
         <v>5</v>
       </c>
       <c r="J173" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -5581,7 +5971,7 @@
         <v>5</v>
       </c>
       <c r="J174" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -5614,7 +6004,7 @@
         <v>5</v>
       </c>
       <c r="J175" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -5647,7 +6037,7 @@
         <v>5</v>
       </c>
       <c r="J176" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -5680,7 +6070,7 @@
         <v>5</v>
       </c>
       <c r="J177" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -5713,13 +6103,13 @@
         <v>5</v>
       </c>
       <c r="J178" s="2" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -5814,7 +6204,7 @@
         <v>5</v>
       </c>
       <c r="J183" s="2" t="str">
-        <f t="shared" ref="J183:J190" si="15">A183&amp;B183&amp;C183&amp;D183&amp;E183&amp;F183&amp;G183&amp;H183&amp;I183</f>
+        <f t="shared" ref="J183:J190" si="16">A183&amp;B183&amp;C183&amp;D183&amp;E183&amp;F183&amp;G183&amp;H183&amp;I183</f>
         <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -5847,7 +6237,7 @@
         <v>5</v>
       </c>
       <c r="J184" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -5880,7 +6270,7 @@
         <v>5</v>
       </c>
       <c r="J185" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -5913,7 +6303,7 @@
         <v>5</v>
       </c>
       <c r="J186" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -5946,7 +6336,7 @@
         <v>5</v>
       </c>
       <c r="J187" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -5979,7 +6369,7 @@
         <v>5</v>
       </c>
       <c r="J188" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -6012,7 +6402,7 @@
         <v>5</v>
       </c>
       <c r="J189" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -6045,13 +6435,13 @@
         <v>5</v>
       </c>
       <c r="J190" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -6146,7 +6536,7 @@
         <v>5</v>
       </c>
       <c r="J195" s="2" t="str">
-        <f t="shared" ref="J195:J202" si="16">A195&amp;B195&amp;C195&amp;D195&amp;E195&amp;F195&amp;G195&amp;H195&amp;I195</f>
+        <f t="shared" ref="J195:J202" si="17">A195&amp;B195&amp;C195&amp;D195&amp;E195&amp;F195&amp;G195&amp;H195&amp;I195</f>
         <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -6179,7 +6569,7 @@
         <v>5</v>
       </c>
       <c r="J196" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -6212,7 +6602,7 @@
         <v>5</v>
       </c>
       <c r="J197" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -6245,7 +6635,7 @@
         <v>5</v>
       </c>
       <c r="J198" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -6278,7 +6668,7 @@
         <v>5</v>
       </c>
       <c r="J199" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -6311,7 +6701,7 @@
         <v>5</v>
       </c>
       <c r="J200" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -6344,7 +6734,7 @@
         <v>5</v>
       </c>
       <c r="J201" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -6377,13 +6767,13 @@
         <v>5</v>
       </c>
       <c r="J202" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -6478,7 +6868,7 @@
         <v>5</v>
       </c>
       <c r="J207" s="2" t="str">
-        <f t="shared" ref="J207:J214" si="17">A207&amp;B207&amp;C207&amp;D207&amp;E207&amp;F207&amp;G207&amp;H207&amp;I207</f>
+        <f t="shared" ref="J207:J214" si="18">A207&amp;B207&amp;C207&amp;D207&amp;E207&amp;F207&amp;G207&amp;H207&amp;I207</f>
         <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -6511,7 +6901,7 @@
         <v>5</v>
       </c>
       <c r="J208" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -6544,7 +6934,7 @@
         <v>5</v>
       </c>
       <c r="J209" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -6577,7 +6967,7 @@
         <v>5</v>
       </c>
       <c r="J210" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -6610,7 +7000,7 @@
         <v>5</v>
       </c>
       <c r="J211" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -6643,7 +7033,7 @@
         <v>5</v>
       </c>
       <c r="J212" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -6676,7 +7066,7 @@
         <v>5</v>
       </c>
       <c r="J213" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -6709,13 +7099,13 @@
         <v>5</v>
       </c>
       <c r="J214" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -6810,7 +7200,7 @@
         <v>5</v>
       </c>
       <c r="J219" s="2" t="str">
-        <f t="shared" ref="J219:J226" si="18">A219&amp;B219&amp;C219&amp;D219&amp;E219&amp;F219&amp;G219&amp;H219&amp;I219</f>
+        <f t="shared" ref="J219:J226" si="19">A219&amp;B219&amp;C219&amp;D219&amp;E219&amp;F219&amp;G219&amp;H219&amp;I219</f>
         <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -6843,7 +7233,7 @@
         <v>5</v>
       </c>
       <c r="J220" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -6876,7 +7266,7 @@
         <v>5</v>
       </c>
       <c r="J221" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -6909,7 +7299,7 @@
         <v>5</v>
       </c>
       <c r="J222" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -6942,7 +7332,7 @@
         <v>5</v>
       </c>
       <c r="J223" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -6975,7 +7365,7 @@
         <v>5</v>
       </c>
       <c r="J224" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -7008,7 +7398,7 @@
         <v>5</v>
       </c>
       <c r="J225" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -7041,13 +7431,13 @@
         <v>5</v>
       </c>
       <c r="J226" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -7142,7 +7532,7 @@
         <v>5</v>
       </c>
       <c r="J231" s="2" t="str">
-        <f t="shared" ref="J231:J238" si="19">A231&amp;B231&amp;C231&amp;D231&amp;E231&amp;F231&amp;G231&amp;H231&amp;I231</f>
+        <f t="shared" ref="J231:J238" si="20">A231&amp;B231&amp;C231&amp;D231&amp;E231&amp;F231&amp;G231&amp;H231&amp;I231</f>
         <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -7175,7 +7565,7 @@
         <v>5</v>
       </c>
       <c r="J232" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -7208,7 +7598,7 @@
         <v>5</v>
       </c>
       <c r="J233" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -7241,7 +7631,7 @@
         <v>5</v>
       </c>
       <c r="J234" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -7274,7 +7664,7 @@
         <v>5</v>
       </c>
       <c r="J235" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -7307,7 +7697,7 @@
         <v>5</v>
       </c>
       <c r="J236" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -7340,7 +7730,7 @@
         <v>5</v>
       </c>
       <c r="J237" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -7373,13 +7763,13 @@
         <v>5</v>
       </c>
       <c r="J238" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -7474,7 +7864,7 @@
         <v>5</v>
       </c>
       <c r="J243" s="2" t="str">
-        <f t="shared" ref="J243:J250" si="20">A243&amp;B243&amp;C243&amp;D243&amp;E243&amp;F243&amp;G243&amp;H243&amp;I243</f>
+        <f t="shared" ref="J243:J250" si="21">A243&amp;B243&amp;C243&amp;D243&amp;E243&amp;F243&amp;G243&amp;H243&amp;I243</f>
         <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -7507,7 +7897,7 @@
         <v>5</v>
       </c>
       <c r="J244" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -7540,7 +7930,7 @@
         <v>5</v>
       </c>
       <c r="J245" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -7573,7 +7963,7 @@
         <v>5</v>
       </c>
       <c r="J246" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -7606,7 +7996,7 @@
         <v>5</v>
       </c>
       <c r="J247" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -7639,7 +8029,7 @@
         <v>5</v>
       </c>
       <c r="J248" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -7672,7 +8062,7 @@
         <v>5</v>
       </c>
       <c r="J249" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -7705,13 +8095,13 @@
         <v>5</v>
       </c>
       <c r="J250" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -7806,7 +8196,7 @@
         <v>5</v>
       </c>
       <c r="J255" s="2" t="str">
-        <f t="shared" ref="J255:J262" si="21">A255&amp;B255&amp;C255&amp;D255&amp;E255&amp;F255&amp;G255&amp;H255&amp;I255</f>
+        <f t="shared" ref="J255:J262" si="22">A255&amp;B255&amp;C255&amp;D255&amp;E255&amp;F255&amp;G255&amp;H255&amp;I255</f>
         <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -7839,7 +8229,7 @@
         <v>5</v>
       </c>
       <c r="J256" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -7872,7 +8262,7 @@
         <v>5</v>
       </c>
       <c r="J257" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -7905,7 +8295,7 @@
         <v>5</v>
       </c>
       <c r="J258" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -7938,7 +8328,7 @@
         <v>5</v>
       </c>
       <c r="J259" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -7971,7 +8361,7 @@
         <v>5</v>
       </c>
       <c r="J260" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -8004,7 +8394,7 @@
         <v>5</v>
       </c>
       <c r="J261" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -8037,13 +8427,13 @@
         <v>5</v>
       </c>
       <c r="J262" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
@@ -8138,7 +8528,7 @@
         <v>5</v>
       </c>
       <c r="J267" s="2" t="str">
-        <f t="shared" ref="J267:J274" si="22">A267&amp;B267&amp;C267&amp;D267&amp;E267&amp;F267&amp;G267&amp;H267&amp;I267</f>
+        <f t="shared" ref="J267:J274" si="23">A267&amp;B267&amp;C267&amp;D267&amp;E267&amp;F267&amp;G267&amp;H267&amp;I267</f>
         <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -8171,7 +8561,7 @@
         <v>5</v>
       </c>
       <c r="J268" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -8204,7 +8594,7 @@
         <v>5</v>
       </c>
       <c r="J269" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -8237,7 +8627,7 @@
         <v>5</v>
       </c>
       <c r="J270" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -8270,7 +8660,7 @@
         <v>5</v>
       </c>
       <c r="J271" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -8303,7 +8693,7 @@
         <v>5</v>
       </c>
       <c r="J272" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -8336,7 +8726,7 @@
         <v>5</v>
       </c>
       <c r="J273" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -8369,13 +8759,13 @@
         <v>5</v>
       </c>
       <c r="J274" s="2" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -8470,7 +8860,7 @@
         <v>5</v>
       </c>
       <c r="J279" s="2" t="str">
-        <f t="shared" ref="J279:J286" si="23">A279&amp;B279&amp;C279&amp;D279&amp;E279&amp;F279&amp;G279&amp;H279&amp;I279</f>
+        <f t="shared" ref="J279:J286" si="24">A279&amp;B279&amp;C279&amp;D279&amp;E279&amp;F279&amp;G279&amp;H279&amp;I279</f>
         <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -8503,7 +8893,7 @@
         <v>5</v>
       </c>
       <c r="J280" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -8536,7 +8926,7 @@
         <v>5</v>
       </c>
       <c r="J281" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -8569,7 +8959,7 @@
         <v>5</v>
       </c>
       <c r="J282" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -8602,7 +8992,7 @@
         <v>5</v>
       </c>
       <c r="J283" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -8635,7 +9025,7 @@
         <v>5</v>
       </c>
       <c r="J284" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -8668,7 +9058,7 @@
         <v>5</v>
       </c>
       <c r="J285" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -8701,13 +9091,13 @@
         <v>5</v>
       </c>
       <c r="J286" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -8802,7 +9192,7 @@
         <v>5</v>
       </c>
       <c r="J291" s="2" t="str">
-        <f t="shared" ref="J291:J298" si="24">A291&amp;B291&amp;C291&amp;D291&amp;E291&amp;F291&amp;G291&amp;H291&amp;I291</f>
+        <f t="shared" ref="J291:J298" si="25">A291&amp;B291&amp;C291&amp;D291&amp;E291&amp;F291&amp;G291&amp;H291&amp;I291</f>
         <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -8835,7 +9225,7 @@
         <v>5</v>
       </c>
       <c r="J292" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -8868,7 +9258,7 @@
         <v>5</v>
       </c>
       <c r="J293" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -8901,7 +9291,7 @@
         <v>5</v>
       </c>
       <c r="J294" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -8934,7 +9324,7 @@
         <v>5</v>
       </c>
       <c r="J295" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -8967,7 +9357,7 @@
         <v>5</v>
       </c>
       <c r="J296" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -9000,7 +9390,7 @@
         <v>5</v>
       </c>
       <c r="J297" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -9033,13 +9423,13 @@
         <v>5</v>
       </c>
       <c r="J298" s="2" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
@@ -9134,7 +9524,7 @@
         <v>5</v>
       </c>
       <c r="J303" s="2" t="str">
-        <f t="shared" ref="J303:J310" si="25">A303&amp;B303&amp;C303&amp;D303&amp;E303&amp;F303&amp;G303&amp;H303&amp;I303</f>
+        <f t="shared" ref="J303:J310" si="26">A303&amp;B303&amp;C303&amp;D303&amp;E303&amp;F303&amp;G303&amp;H303&amp;I303</f>
         <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -9167,7 +9557,7 @@
         <v>5</v>
       </c>
       <c r="J304" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -9200,7 +9590,7 @@
         <v>5</v>
       </c>
       <c r="J305" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -9233,7 +9623,7 @@
         <v>5</v>
       </c>
       <c r="J306" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -9266,7 +9656,7 @@
         <v>5</v>
       </c>
       <c r="J307" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -9299,7 +9689,7 @@
         <v>5</v>
       </c>
       <c r="J308" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -9332,7 +9722,7 @@
         <v>5</v>
       </c>
       <c r="J309" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -9365,13 +9755,13 @@
         <v>5</v>
       </c>
       <c r="J310" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.3">
@@ -9466,7 +9856,7 @@
         <v>5</v>
       </c>
       <c r="J315" s="2" t="str">
-        <f t="shared" ref="J315:J322" si="26">A315&amp;B315&amp;C315&amp;D315&amp;E315&amp;F315&amp;G315&amp;H315&amp;I315</f>
+        <f t="shared" ref="J315:J322" si="27">A315&amp;B315&amp;C315&amp;D315&amp;E315&amp;F315&amp;G315&amp;H315&amp;I315</f>
         <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -9499,7 +9889,7 @@
         <v>5</v>
       </c>
       <c r="J316" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -9532,7 +9922,7 @@
         <v>5</v>
       </c>
       <c r="J317" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -9565,7 +9955,7 @@
         <v>5</v>
       </c>
       <c r="J318" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -9598,7 +9988,7 @@
         <v>5</v>
       </c>
       <c r="J319" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -9631,7 +10021,7 @@
         <v>5</v>
       </c>
       <c r="J320" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -9664,7 +10054,7 @@
         <v>5</v>
       </c>
       <c r="J321" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -9697,13 +10087,13 @@
         <v>5</v>
       </c>
       <c r="J322" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.3">
@@ -9798,7 +10188,7 @@
         <v>5</v>
       </c>
       <c r="J327" s="2" t="str">
-        <f t="shared" ref="J327:J334" si="27">A327&amp;B327&amp;C327&amp;D327&amp;E327&amp;F327&amp;G327&amp;H327&amp;I327</f>
+        <f t="shared" ref="J327:J334" si="28">A327&amp;B327&amp;C327&amp;D327&amp;E327&amp;F327&amp;G327&amp;H327&amp;I327</f>
         <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -9831,7 +10221,7 @@
         <v>5</v>
       </c>
       <c r="J328" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -9864,7 +10254,7 @@
         <v>5</v>
       </c>
       <c r="J329" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -9897,7 +10287,7 @@
         <v>5</v>
       </c>
       <c r="J330" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -9930,7 +10320,7 @@
         <v>5</v>
       </c>
       <c r="J331" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -9963,7 +10353,7 @@
         <v>5</v>
       </c>
       <c r="J332" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -9996,7 +10386,7 @@
         <v>5</v>
       </c>
       <c r="J333" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -10029,13 +10419,13 @@
         <v>5</v>
       </c>
       <c r="J334" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
@@ -10130,7 +10520,7 @@
         <v>5</v>
       </c>
       <c r="J339" s="2" t="str">
-        <f t="shared" ref="J339:J346" si="28">A339&amp;B339&amp;C339&amp;D339&amp;E339&amp;F339&amp;G339&amp;H339&amp;I339</f>
+        <f t="shared" ref="J339:J346" si="29">A339&amp;B339&amp;C339&amp;D339&amp;E339&amp;F339&amp;G339&amp;H339&amp;I339</f>
         <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -10163,7 +10553,7 @@
         <v>5</v>
       </c>
       <c r="J340" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -10196,7 +10586,7 @@
         <v>5</v>
       </c>
       <c r="J341" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -10229,7 +10619,7 @@
         <v>5</v>
       </c>
       <c r="J342" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -10262,7 +10652,7 @@
         <v>5</v>
       </c>
       <c r="J343" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -10295,7 +10685,7 @@
         <v>5</v>
       </c>
       <c r="J344" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -10328,7 +10718,7 @@
         <v>5</v>
       </c>
       <c r="J345" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
       </c>
     </row>
@@ -10361,338 +10751,6 @@
         <v>5</v>
       </c>
       <c r="J346" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A348" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A349" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D349" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E349" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F349" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G349" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H349" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I349" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J349" s="2" t="str">
-        <f>A349&amp;B349&amp;C349&amp;D349&amp;E349&amp;F349&amp;G349&amp;H349&amp;I349</f>
-        <v>{beginning: "", bold: "Я", correct: "I", ending: "love Ukraine"},</v>
-      </c>
-    </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A350" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B350" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D350" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E350" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F350" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G350" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H350" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I350" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J350" s="2" t="str">
-        <f>A350&amp;B350&amp;C350&amp;D350&amp;E350&amp;F350&amp;G350&amp;H350&amp;I350</f>
-        <v>{beginning: "beginning text", bold: "word text2", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A351" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B351" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C351" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D351" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E351" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F351" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G351" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H351" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I351" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J351" s="2" t="str">
-        <f t="shared" ref="J351:J358" si="29">A351&amp;B351&amp;C351&amp;D351&amp;E351&amp;F351&amp;G351&amp;H351&amp;I351</f>
-        <v>{beginning: "beginning text", bold: "word text3", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A352" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C352" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D352" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E352" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F352" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G352" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H352" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I352" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J352" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>{beginning: "beginning text", bold: "word text4", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A353" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B353" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D353" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E353" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F353" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G353" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H353" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I353" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J353" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>{beginning: "beginning text", bold: "word text5", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A354" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B354" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D354" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E354" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F354" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G354" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H354" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I354" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J354" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>{beginning: "beginning text", bold: "word text6", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A355" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B355" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D355" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E355" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F355" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G355" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H355" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I355" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J355" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>{beginning: "beginning text", bold: "word text7", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A356" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B356" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D356" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E356" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F356" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G356" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H356" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I356" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J356" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>{beginning: "beginning text", bold: "word text8", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A357" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D357" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E357" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F357" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G357" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H357" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I357" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J357" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>{beginning: "beginning text", bold: "word text9", correct: "translate text", ending: "ending text"},</v>
-      </c>
-    </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A358" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B358" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D358" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E358" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F358" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G358" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H358" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I358" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J358" s="2" t="str">
         <f t="shared" si="29"/>
         <v>{beginning: "beginning text", bold: "word text10", correct: "translate text", ending: "ending text"},</v>
       </c>
